--- a/sriramModel-nelson-atypical-patientID_12-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_12-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.007931048836357</v>
+        <v>2.009388220939255</v>
       </c>
       <c r="C2">
-        <v>2.003621186934836</v>
+        <v>2.002446619415851</v>
       </c>
       <c r="D2">
-        <v>2.011884112907208</v>
+        <v>2.002408723007933</v>
       </c>
       <c r="E2">
-        <v>2.011246649445332</v>
+        <v>1.997422867256645</v>
       </c>
       <c r="F2">
-        <v>2.003254564197984</v>
+        <v>2.002414409569063</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.017751382409373</v>
+        <v>2.019924531047558</v>
       </c>
       <c r="C3">
-        <v>2.009070135771451</v>
+        <v>2.004994418454851</v>
       </c>
       <c r="D3">
-        <v>2.025893922393462</v>
+        <v>2.004970878869896</v>
       </c>
       <c r="E3">
-        <v>2.023433731925261</v>
+        <v>1.995279926439491</v>
       </c>
       <c r="F3">
-        <v>2.00875078762185</v>
+        <v>2.005083217851505</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.029390208254534</v>
+        <v>2.031551768030395</v>
       </c>
       <c r="C4">
-        <v>2.016236508044917</v>
+        <v>2.007643852097852</v>
       </c>
       <c r="D4">
-        <v>2.04192055370732</v>
+        <v>2.007683188359284</v>
       </c>
       <c r="E4">
-        <v>2.036538076463143</v>
+        <v>1.993550512285885</v>
       </c>
       <c r="F4">
-        <v>2.016356021537674</v>
+        <v>2.00799395838296</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.042776979923914</v>
+        <v>2.044215865209259</v>
       </c>
       <c r="C5">
-        <v>2.02501536657378</v>
+        <v>2.010395513763969</v>
       </c>
       <c r="D5">
-        <v>2.059860146472768</v>
+        <v>2.010542689655316</v>
       </c>
       <c r="E5">
-        <v>2.050537779814823</v>
+        <v>1.992215044740064</v>
       </c>
       <c r="F5">
-        <v>2.025944953513693</v>
+        <v>2.011134987662258</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.057841440818015</v>
+        <v>2.057865743338001</v>
       </c>
       <c r="C6">
-        <v>2.035307039123768</v>
+        <v>2.013250144104307</v>
       </c>
       <c r="D6">
-        <v>2.079613854734699</v>
+        <v>2.013546730584248</v>
       </c>
       <c r="E6">
-        <v>2.065412089302604</v>
+        <v>1.991255022751251</v>
       </c>
       <c r="F6">
-        <v>2.037399275206848</v>
+        <v>2.014495460120588</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.07451373181568</v>
+        <v>2.072453127332243</v>
       </c>
       <c r="C7">
-        <v>2.047017037127393</v>
+        <v>2.016208635487344</v>
       </c>
       <c r="D7">
-        <v>2.101087579823731</v>
+        <v>2.016692965244205</v>
       </c>
       <c r="E7">
-        <v>2.081141431161556</v>
+        <v>1.990653001713095</v>
       </c>
       <c r="F7">
-        <v>2.05060742191379</v>
+        <v>2.018065291164177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.092724527452311</v>
+        <v>2.087932455073891</v>
       </c>
       <c r="C8">
-        <v>2.06005586409343</v>
+        <v>2.019272030661183</v>
       </c>
       <c r="D8">
-        <v>2.124191861257864</v>
+        <v>2.019979349820277</v>
       </c>
       <c r="E8">
-        <v>2.097707324284977</v>
+        <v>1.990392581108096</v>
       </c>
       <c r="F8">
-        <v>2.065464288093991</v>
+        <v>2.021835128132457</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.11240515897199</v>
+        <v>2.104260783249337</v>
       </c>
       <c r="C9">
-        <v>2.074338911543115</v>
+        <v>2.022441527346886</v>
       </c>
       <c r="D9">
-        <v>2.1488417459599</v>
+        <v>2.023404139679064</v>
       </c>
       <c r="E9">
-        <v>2.11509233140491</v>
+        <v>1.990458383300806</v>
       </c>
       <c r="F9">
-        <v>2.081870942569518</v>
+        <v>2.025796325436748</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.133487724655668</v>
+        <v>2.121397648431926</v>
       </c>
       <c r="C10">
-        <v>2.089786311479322</v>
+        <v>2.025718481886675</v>
       </c>
       <c r="D10">
-        <v>2.174956634423188</v>
+        <v>2.026965887384239</v>
       </c>
       <c r="E10">
-        <v>2.133280034857293</v>
+        <v>1.990836029324055</v>
       </c>
       <c r="F10">
-        <v>2.099734381059534</v>
+        <v>2.029940917173251</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.155905184478097</v>
+        <v>2.139304971605784</v>
       </c>
       <c r="C11">
-        <v>2.106322806582205</v>
+        <v>2.029104414022897</v>
       </c>
       <c r="D11">
-        <v>2.202460145394511</v>
+        <v>2.030663442241242</v>
       </c>
       <c r="E11">
-        <v>2.152254936878957</v>
+        <v>1.99151211689555</v>
       </c>
       <c r="F11">
-        <v>2.118967273057663</v>
+        <v>2.034261591201124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.179591444117742</v>
+        <v>2.157946956132359</v>
       </c>
       <c r="C12">
-        <v>2.123877602787902</v>
+        <v>2.03260101231348</v>
       </c>
       <c r="D12">
-        <v>2.231279978518446</v>
+        <v>2.034495949255663</v>
       </c>
       <c r="E12">
-        <v>2.172002408760511</v>
+        <v>1.992474194457848</v>
       </c>
       <c r="F12">
-        <v>2.139487711858638</v>
+        <v>2.0387516661305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.204481439387706</v>
+        <v>2.177289982763628</v>
       </c>
       <c r="C13">
-        <v>2.142384215981855</v>
+        <v>2.036210139710264</v>
       </c>
       <c r="D13">
-        <v>2.261347772342236</v>
+        <v>2.038462850213993</v>
       </c>
       <c r="E13">
-        <v>2.192508652341289</v>
+        <v>1.993710735555887</v>
       </c>
       <c r="F13">
-        <v>2.161218970225981</v>
+        <v>2.043405070061687</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.230511213244597</v>
+        <v>2.197302512053672</v>
       </c>
       <c r="C14">
-        <v>2.161780337671573</v>
+        <v>2.039933839732066</v>
       </c>
       <c r="D14">
-        <v>2.292598974083011</v>
+        <v>2.042563886432342</v>
       </c>
       <c r="E14">
-        <v>2.213760631625286</v>
+        <v>1.99521111256807</v>
       </c>
       <c r="F14">
-        <v>2.184089277747191</v>
+        <v>2.048216319565888</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.257618013279908</v>
+        <v>2.217954994870103</v>
       </c>
       <c r="C15">
-        <v>2.182007707474532</v>
+        <v>2.043774343474897</v>
       </c>
       <c r="D15">
-        <v>2.324972697013149</v>
+        <v>2.046799102190196</v>
       </c>
       <c r="E15">
-        <v>2.235745996289756</v>
+        <v>1.99696557353399</v>
       </c>
       <c r="F15">
-        <v>2.208031599995412</v>
+        <v>2.053180501955442</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.285740329697299</v>
+        <v>2.239219785581503</v>
       </c>
       <c r="C16">
-        <v>2.203011982809527</v>
+        <v>2.047734077511149</v>
       </c>
       <c r="D16">
-        <v>2.358411588775208</v>
+        <v>2.051168849199028</v>
       </c>
       <c r="E16">
-        <v>2.258453016728486</v>
+        <v>1.998965216818138</v>
       </c>
       <c r="F16">
-        <v>2.232983424936788</v>
+        <v>2.058293256923096</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.314817950164632</v>
+        <v>2.261071057986665</v>
       </c>
       <c r="C17">
-        <v>2.224742612988383</v>
+        <v>2.051815672886446</v>
       </c>
       <c r="D17">
-        <v>2.392861700592068</v>
+        <v>2.055673793774265</v>
       </c>
       <c r="E17">
-        <v>2.281870504831907</v>
+        <v>2.001201964272215</v>
       </c>
       <c r="F17">
-        <v>2.25888655816251</v>
+        <v>2.063550761020431</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.344792009901339</v>
+        <v>2.283484725649898</v>
       </c>
       <c r="C18">
-        <v>2.247152716723719</v>
+        <v>2.056021979006414</v>
       </c>
       <c r="D18">
-        <v>2.42827236094005</v>
+        <v>2.060314922371831</v>
       </c>
       <c r="E18">
-        <v>2.305987760644376</v>
+        <v>2.003668538282805</v>
       </c>
       <c r="F18">
-        <v>2.28568692892752</v>
+        <v>2.068949713423322</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.375605036329028</v>
+        <v>2.306438362929282</v>
       </c>
       <c r="C19">
-        <v>2.270198971725082</v>
+        <v>2.060356058981708</v>
       </c>
       <c r="D19">
-        <v>2.464596050869938</v>
+        <v>2.065093551319647</v>
       </c>
       <c r="E19">
-        <v>2.330794470389507</v>
+        <v>2.006358441541901</v>
       </c>
       <c r="F19">
-        <v>2.313334406329744</v>
+        <v>2.074487323252328</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.407200992207271</v>
+        <v>2.32991113671864</v>
       </c>
       <c r="C20">
-        <v>2.293841519749602</v>
+        <v>2.064821218209798</v>
       </c>
       <c r="D20">
-        <v>2.501788282205196</v>
+        <v>2.070011339126993</v>
       </c>
       <c r="E20">
-        <v>2.356280678509024</v>
+        <v>2.009265936897526</v>
       </c>
       <c r="F20">
-        <v>2.341782622458362</v>
+        <v>2.080161299272762</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.439525312944552</v>
+        <v>2.353883740257301</v>
       </c>
       <c r="C21">
-        <v>2.318043860230624</v>
+        <v>2.069421011683534</v>
       </c>
       <c r="D21">
-        <v>2.53980747815509</v>
+        <v>2.075070301440736</v>
       </c>
       <c r="E21">
-        <v>2.382436700642109</v>
+        <v>2.012386028222759</v>
       </c>
       <c r="F21">
-        <v>2.370988803981113</v>
+        <v>2.085969840231931</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.47252493611808</v>
+        <v>2.378338330431695</v>
       </c>
       <c r="C22">
-        <v>2.342772786097949</v>
+        <v>2.074159261655701</v>
       </c>
       <c r="D22">
-        <v>2.57861485832685</v>
+        <v>2.080272825098199</v>
       </c>
       <c r="E22">
-        <v>2.409253059913275</v>
+        <v>2.015714442134169</v>
       </c>
       <c r="F22">
-        <v>2.40091361373664</v>
+        <v>2.091911627703328</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.506148328195901</v>
+        <v>2.403258467490013</v>
       </c>
       <c r="C23">
-        <v>2.367998309334482</v>
+        <v>2.079040071723396</v>
       </c>
       <c r="D23">
-        <v>2.618174326184794</v>
+        <v>2.085621686099599</v>
       </c>
       <c r="E23">
-        <v>2.4367204225302</v>
+        <v>2.01924761336257</v>
       </c>
       <c r="F23">
-        <v>2.431521000848989</v>
+        <v>2.097985820289493</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.540345508682456</v>
+        <v>2.428629064917226</v>
       </c>
       <c r="C24">
-        <v>2.39369359552121</v>
+        <v>2.084067841010167</v>
       </c>
       <c r="D24">
-        <v>2.658452361654513</v>
+        <v>2.091120070889532</v>
       </c>
       <c r="E24">
-        <v>2.464829535141786</v>
+        <v>2.022982669491983</v>
       </c>
       <c r="F24">
-        <v>2.46277805969656</v>
+        <v>2.104192051340591</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.575068070342308</v>
+        <v>2.45443633840033</v>
       </c>
       <c r="C25">
-        <v>2.419834923748401</v>
+        <v>2.089247285642933</v>
       </c>
       <c r="D25">
-        <v>2.69941791656264</v>
+        <v>2.096771599589589</v>
       </c>
       <c r="E25">
-        <v>2.493571178697654</v>
+        <v>2.026917420976527</v>
       </c>
       <c r="F25">
-        <v>2.494654897355217</v>
+        <v>2.11053042705734</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.610269199169406</v>
+        <v>2.480667762547988</v>
       </c>
       <c r="C26">
-        <v>2.446401660151377</v>
+        <v>2.094583461507546</v>
       </c>
       <c r="D26">
-        <v>2.741042314248836</v>
+        <v>2.102580355338332</v>
       </c>
       <c r="E26">
-        <v>2.522936120274299</v>
+        <v>2.031050354059174</v>
       </c>
       <c r="F26">
-        <v>2.527124509926011</v>
+        <v>2.117001527092408</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.645903691956233</v>
+        <v>2.507312028758199</v>
       </c>
       <c r="C27">
-        <v>2.473376238839843</v>
+        <v>2.1000817886565</v>
       </c>
       <c r="D27">
-        <v>2.783299152133666</v>
+        <v>2.108550915685794</v>
       </c>
       <c r="E27">
-        <v>2.552915071619285</v>
+        <v>2.035380622265567</v>
       </c>
       <c r="F27">
-        <v>2.560162667479194</v>
+        <v>2.123606408036202</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.681927971877391</v>
+        <v>2.534359016013463</v>
       </c>
       <c r="C28">
-        <v>2.500744154467042</v>
+        <v>2.105748077567215</v>
       </c>
       <c r="D28">
-        <v>2.826164209534359</v>
+        <v>2.114688388955281</v>
       </c>
       <c r="E28">
-        <v>2.583498655926769</v>
+        <v>2.039908043332123</v>
       </c>
       <c r="F28">
-        <v>2.593747807798812</v>
+        <v>2.130346609314942</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.718300103400098</v>
+        <v>2.561799760550389</v>
       </c>
       <c r="C29">
-        <v>2.528494000684378</v>
+        <v>2.111588558479434</v>
       </c>
       <c r="D29">
-        <v>2.869615358713633</v>
+        <v>2.120998456011947</v>
       </c>
       <c r="E29">
-        <v>2.614677379630392</v>
+        <v>2.0446331000101</v>
       </c>
       <c r="F29">
-        <v>2.627860938882058</v>
+        <v>2.137224161939092</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.754979806293508</v>
+        <v>2.589626432098185</v>
       </c>
       <c r="C30">
-        <v>2.556617502986414</v>
+        <v>2.117609913268</v>
       </c>
       <c r="D30">
-        <v>2.913632480317391</v>
+        <v>2.127487416575573</v>
       </c>
       <c r="E30">
-        <v>2.64644161178416</v>
+        <v>2.049556942458881</v>
       </c>
       <c r="F30">
-        <v>2.662485550227915</v>
+        <v>2.144241601737755</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.791928469750225</v>
+        <v>2.617832315155718</v>
       </c>
       <c r="C31">
-        <v>2.585109558324255</v>
+        <v>2.123819311904959</v>
       </c>
       <c r="D31">
-        <v>2.958197382974562</v>
+        <v>2.134162244127001</v>
       </c>
       <c r="E31">
-        <v>2.678781571954007</v>
+        <v>2.054681390586575</v>
       </c>
       <c r="F31">
-        <v>2.697607533002871</v>
+        <v>2.151401984004913</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.829109167434698</v>
+        <v>2.646411802362137</v>
       </c>
       <c r="C32">
-        <v>2.613968342872659</v>
+        <v>2.130224452914468</v>
       </c>
       <c r="D32">
-        <v>3.003293727137588</v>
+        <v>2.141030648088225</v>
       </c>
       <c r="E32">
-        <v>2.711687321237283</v>
+        <v>2.06000894988422</v>
       </c>
       <c r="F32">
-        <v>2.73321510921341</v>
+        <v>2.158708902561539</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.866486673395154</v>
+        <v>2.675360388886979</v>
       </c>
       <c r="C33">
-        <v>2.643195410542023</v>
+        <v>2.136833607097783</v>
       </c>
       <c r="D33">
-        <v>3.048906953339507</v>
+        <v>2.148101144391781</v>
       </c>
       <c r="E33">
-        <v>2.745148768976648</v>
+        <v>2.065542824465555</v>
       </c>
       <c r="F33">
-        <v>2.769298770041767</v>
+        <v>2.166166513578021</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.904027478852741</v>
+        <v>2.704674675068891</v>
       </c>
       <c r="C34">
-        <v>2.672795803046251</v>
+        <v>2.143655667875523</v>
       </c>
       <c r="D34">
-        <v>3.095024214300315</v>
+        <v>2.155383136808768</v>
       </c>
       <c r="E34">
-        <v>2.77915567808506</v>
+        <v>2.071286931802093</v>
       </c>
       <c r="F34">
-        <v>2.805851223526381</v>
+        <v>2.173779562296267</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.94169981033267</v>
+        <v>2.73435237647255</v>
       </c>
       <c r="C35">
-        <v>2.702778224972849</v>
+        <v>2.150700206114501</v>
       </c>
       <c r="D35">
-        <v>3.141634312146095</v>
+        <v>2.162887009994576</v>
       </c>
       <c r="E35">
-        <v>2.813697678842546</v>
+        <v>2.077245933074703</v>
       </c>
       <c r="F35">
-        <v>2.842867351804967</v>
+        <v>2.181553418271725</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.979473650424215</v>
+        <v>2.764392347189598</v>
       </c>
       <c r="C36">
-        <v>2.733155230553488</v>
+        <v>2.1579775313232</v>
       </c>
       <c r="D36">
-        <v>3.188727640508482</v>
+        <v>2.17062423431336</v>
       </c>
       <c r="E36">
-        <v>2.848764285717563</v>
+        <v>2.083425262910974</v>
       </c>
       <c r="F36">
-        <v>2.880344178184704</v>
+        <v>2.189494114247713</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.017320760479936</v>
+        <v>2.794794607607378</v>
       </c>
       <c r="C37">
-        <v>2.763943419760468</v>
+        <v>2.16549876043468</v>
       </c>
       <c r="D37">
-        <v>3.236296129921265</v>
+        <v>2.178607492022997</v>
       </c>
       <c r="E37">
-        <v>2.884344922246089</v>
+        <v>2.089831161466634</v>
       </c>
       <c r="F37">
-        <v>2.918280844349364</v>
+        <v>2.197608392577339</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.055214705985902</v>
+        <v>2.825560381544763</v>
       </c>
       <c r="C38">
-        <v>2.795163676796927</v>
+        <v>2.173275893737441</v>
       </c>
       <c r="D38">
-        <v>3.284333198285227</v>
+        <v>2.186850818065286</v>
       </c>
       <c r="E38">
-        <v>2.920428946926582</v>
+        <v>2.096470723208259</v>
       </c>
       <c r="F38">
-        <v>2.956678598051314</v>
+        <v>2.205903760226003</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.093130885015063</v>
+        <v>2.85669214687078</v>
       </c>
       <c r="C39">
-        <v>2.82684145927368</v>
+        <v>2.181321899944761</v>
       </c>
       <c r="D39">
-        <v>3.332833705877345</v>
+        <v>2.195369764385807</v>
       </c>
       <c r="E39">
-        <v>2.957005681235737</v>
+        <v>2.103351952147309</v>
       </c>
       <c r="F39">
-        <v>2.99554079166972</v>
+        <v>2.214388549479146</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.131046558562978</v>
+        <v>2.888193702183774</v>
       </c>
       <c r="C40">
-        <v>2.859007078711105</v>
+        <v>2.189650813358259</v>
       </c>
       <c r="D40">
-        <v>3.381793914826183</v>
+        <v>2.204181592516735</v>
       </c>
       <c r="E40">
-        <v>2.994064439409347</v>
+        <v>2.110483819872882</v>
       </c>
       <c r="F40">
-        <v>3.034872892046995</v>
+        <v>2.223071994415347</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.168940886225405</v>
+        <v>2.920070242750169</v>
       </c>
       <c r="C41">
-        <v>2.891695985688097</v>
+        <v>2.198277840292739</v>
       </c>
       <c r="D41">
-        <v>3.431211453095243</v>
+        <v>2.213305489353739</v>
       </c>
       <c r="E41">
-        <v>3.031594558851093</v>
+        <v>2.117876338557269</v>
       </c>
       <c r="F41">
-        <v>3.074682502039062</v>
+        <v>2.231964315803411</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.206794963902891</v>
+        <v>2.952328448261629</v>
       </c>
       <c r="C42">
-        <v>2.924949136796291</v>
+        <v>2.207219479354589</v>
       </c>
       <c r="D42">
-        <v>3.481085281804043</v>
+        <v>2.222762831219828</v>
       </c>
       <c r="E42">
-        <v>3.069585430336672</v>
+        <v>2.12554065548846</v>
       </c>
       <c r="F42">
-        <v>3.114979394223782</v>
+        <v>2.241076820801691</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.244591864123611</v>
+        <v>2.984976594865783</v>
       </c>
       <c r="C43">
-        <v>2.958813283255643</v>
+        <v>2.216493657871963</v>
       </c>
       <c r="D43">
-        <v>3.531415667731386</v>
+        <v>2.232577482901756</v>
       </c>
       <c r="E43">
-        <v>3.108026525464547</v>
+        <v>2.133489153010835</v>
       </c>
       <c r="F43">
-        <v>3.155775557198986</v>
+        <v>2.250422020585843</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.282316681965319</v>
+        <v>3.018024687454639</v>
       </c>
       <c r="C44">
-        <v>2.993341266551208</v>
+        <v>2.22611987870135</v>
       </c>
       <c r="D44">
-        <v>3.582204158385111</v>
+        <v>2.24277615297284</v>
       </c>
       <c r="E44">
-        <v>3.146907422218133</v>
+        <v>2.141735551779483</v>
       </c>
       <c r="F44">
-        <v>3.197085254859896</v>
+        <v>2.260013761545347</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.31995658243152</v>
+        <v>3.051484610661623</v>
       </c>
       <c r="C45">
-        <v>3.028592293168905</v>
+        <v>2.236119396703115</v>
       </c>
       <c r="D45">
-        <v>3.63345356029231</v>
+        <v>2.253388812229493</v>
       </c>
       <c r="E45">
-        <v>3.186217828514883</v>
+        <v>2.150295072150815</v>
       </c>
       <c r="F45">
-        <v>3.238925098965196</v>
+        <v>2.269867387555747</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.357500854294769</v>
+        <v>3.085370294810213</v>
       </c>
       <c r="C46">
-        <v>3.064632051232754</v>
+        <v>2.246515408511934</v>
       </c>
       <c r="D46">
-        <v>3.685167919617765</v>
+        <v>2.264449180851042</v>
       </c>
       <c r="E46">
-        <v>3.22594760005034</v>
+        <v>2.159184592429171</v>
       </c>
       <c r="F46">
-        <v>3.281314135166817</v>
+        <v>2.279999925114379</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.394940966750373</v>
+        <v>3.119697926436781</v>
       </c>
       <c r="C47">
-        <v>3.101532699506692</v>
+        <v>2.257333268553529</v>
       </c>
       <c r="D47">
-        <v>3.7373525041565</v>
+        <v>2.275995301869813</v>
       </c>
       <c r="E47">
-        <v>3.266086754021214</v>
+        <v>2.168422812926424</v>
       </c>
       <c r="F47">
-        <v>3.324273942471997</v>
+        <v>2.290430300791569</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.432270628520475</v>
+        <v>3.154486185203004</v>
       </c>
       <c r="C48">
-        <v>3.139372643995725</v>
+        <v>2.268600735206696</v>
       </c>
       <c r="D48">
-        <v>3.790013785513497</v>
+        <v>2.288070241414342</v>
       </c>
       <c r="E48">
-        <v>3.306625477763236</v>
+        <v>2.178030508437264</v>
       </c>
       <c r="F48">
-        <v>3.367828745804078</v>
+        <v>2.301179597560483</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.469485852526948</v>
+        <v>3.189756515472685</v>
       </c>
       <c r="C49">
-        <v>3.178236001591103</v>
+        <v>2.280348236132511</v>
       </c>
       <c r="D49">
-        <v>3.843159419942006</v>
+        <v>2.300722897105462</v>
       </c>
       <c r="E49">
-        <v>3.347554132175611</v>
+        <v>2.18803078731254</v>
       </c>
       <c r="F49">
-        <v>3.412005540902051</v>
+        <v>2.312271349812844</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.506585023650296</v>
+        <v>3.225533418760108</v>
       </c>
       <c r="C50">
-        <v>3.218211621034639</v>
+        <v>2.292609179781304</v>
       </c>
       <c r="D50">
-        <v>3.896798226429101</v>
+        <v>2.314008965374892</v>
       </c>
       <c r="E50">
-        <v>3.388863249052319</v>
+        <v>2.198449362540949</v>
       </c>
       <c r="F50">
-        <v>3.456834230211458</v>
+        <v>2.323731904009492</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.543568972642225</v>
+        <v>3.261844827017359</v>
       </c>
       <c r="C51">
-        <v>3.259391552019415</v>
+        <v>2.305420301223733</v>
       </c>
       <c r="D51">
-        <v>3.950940159044166</v>
+        <v>2.327992105539072</v>
       </c>
       <c r="E51">
-        <v>3.430543518997781</v>
+        <v>2.209314936888117</v>
       </c>
       <c r="F51">
-        <v>3.502347767661455</v>
+        <v>2.335590846176872</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.580441053560514</v>
+        <v>3.298722509489287</v>
       </c>
       <c r="C52">
-        <v>3.301869001823851</v>
+        <v>2.318822045589185</v>
       </c>
       <c r="D52">
-        <v>4.005596273430121</v>
+        <v>2.342745248582653</v>
       </c>
       <c r="E52">
-        <v>3.47258577574899</v>
+        <v>2.22065963885963</v>
       </c>
       <c r="F52">
-        <v>3.548582309015905</v>
+        <v>2.347881503356581</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.617207658934535</v>
+        <v>3.336202542342864</v>
       </c>
       <c r="C53">
-        <v>3.345735218304456</v>
+        <v>2.332858997625538</v>
       </c>
       <c r="D53">
-        <v>4.060779163447569</v>
+        <v>2.358352260921221</v>
       </c>
       <c r="E53">
-        <v>3.514981123646281</v>
+        <v>2.232519482683704</v>
       </c>
       <c r="F53">
-        <v>3.595577858423936</v>
+        <v>2.360641551306863</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.653882795983361</v>
+        <v>3.374325805568908</v>
       </c>
       <c r="C54">
-        <v>3.391079799653291</v>
+        <v>2.347580351567979</v>
       </c>
       <c r="D54">
-        <v>4.116507823736551</v>
+        <v>2.374909787014714</v>
       </c>
       <c r="E54">
-        <v>3.557722410279212</v>
+        <v>2.244934948584189</v>
       </c>
       <c r="F54">
-        <v>3.643383405263164</v>
+        <v>2.373913726812583</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.690491801411923</v>
+        <v>3.4131386221892</v>
       </c>
       <c r="C55">
-        <v>3.437989481921349</v>
+        <v>2.363040429372041</v>
       </c>
       <c r="D55">
-        <v>4.1728120598847</v>
+        <v>2.392529456940501</v>
       </c>
       <c r="E55">
-        <v>3.600805588280354</v>
+        <v>2.257951731300675</v>
       </c>
       <c r="F55">
-        <v>3.692061417334265</v>
+        <v>2.38774669166257</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.727070396286289</v>
+        <v>3.452693432596486</v>
       </c>
       <c r="C56">
-        <v>3.486542763645357</v>
+        <v>2.379299253871639</v>
       </c>
       <c r="D56">
-        <v>4.229731614767556</v>
+        <v>2.411340487422668</v>
       </c>
       <c r="E56">
-        <v>3.644229475705143</v>
+        <v>2.271621440971821</v>
       </c>
       <c r="F56">
-        <v>3.74168722041344</v>
+        <v>2.402196101972365</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.76366343355822</v>
+        <v>3.49304957127977</v>
       </c>
       <c r="C57">
-        <v>3.536803889081058</v>
+        <v>2.396423147417105</v>
       </c>
       <c r="D57">
-        <v>4.287314868874716</v>
+        <v>2.431492338492843</v>
       </c>
       <c r="E57">
-        <v>3.687995369086914</v>
+        <v>2.286002732019538</v>
       </c>
       <c r="F57">
-        <v>3.792347866847388</v>
+        <v>2.417325866665572</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.800323775893884</v>
+        <v>3.53427407190784</v>
       </c>
       <c r="C58">
-        <v>3.588817264363324</v>
+        <v>2.414485361895826</v>
       </c>
       <c r="D58">
-        <v>4.345617444233903</v>
+        <v>2.4531575963205</v>
       </c>
       <c r="E58">
-        <v>3.732106625328092</v>
+        <v>2.3011623838294</v>
       </c>
       <c r="F58">
-        <v>3.844141050972059</v>
+        <v>2.433209691206376</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.837111299650573</v>
+        <v>3.576442689623767</v>
       </c>
       <c r="C59">
-        <v>3.642602455252609</v>
+        <v>2.433566712456117</v>
       </c>
       <c r="D59">
-        <v>4.404700730650832</v>
+        <v>2.47653479133799</v>
       </c>
       <c r="E59">
-        <v>3.776568226198703</v>
+        <v>2.317176594037544</v>
       </c>
       <c r="F59">
-        <v>3.897174017072672</v>
+        <v>2.449932807722489</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.874092021375874</v>
+        <v>3.619640920404839</v>
       </c>
       <c r="C60">
-        <v>3.69815113985967</v>
+        <v>2.453756189303109</v>
       </c>
       <c r="D60">
-        <v>4.464630311833319</v>
+        <v>2.501850577640901</v>
       </c>
       <c r="E60">
-        <v>3.821386324797078</v>
+        <v>2.334132553162863</v>
       </c>
       <c r="F60">
-        <v>3.951562420839249</v>
+        <v>2.467594492366894</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.911337347775259</v>
+        <v>3.663965078332138</v>
       </c>
       <c r="C61">
-        <v>3.75542588154214</v>
+        <v>2.475151502364244</v>
       </c>
       <c r="D61">
-        <v>4.525474387141067</v>
+        <v>2.529360395764107</v>
       </c>
       <c r="E61">
-        <v>3.866567780890079</v>
+        <v>2.352130289276414</v>
       </c>
       <c r="F61">
-        <v>4.007429112785695</v>
+        <v>2.486310636605304</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.948923448079645</v>
+        <v>3.709523570249777</v>
       </c>
       <c r="C62">
-        <v>3.814361315628182</v>
+        <v>2.497859453207321</v>
       </c>
       <c r="D62">
-        <v>4.587302087379853</v>
+        <v>2.559346572890506</v>
       </c>
       <c r="E62">
-        <v>3.912119689026957</v>
+        <v>2.371284756156356</v>
       </c>
       <c r="F62">
-        <v>4.064902765705812</v>
+        <v>2.506216918401882</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.986930746574698</v>
+        <v>3.756438025017569</v>
       </c>
       <c r="C63">
-        <v>3.874867430487494</v>
+        <v>2.521996075160766</v>
       </c>
       <c r="D63">
-        <v>4.650181759209025</v>
+        <v>2.592110804869715</v>
       </c>
       <c r="E63">
-        <v>3.95804891300952</v>
+        <v>2.391728144100383</v>
       </c>
       <c r="F63">
-        <v>4.124116287551844</v>
+        <v>2.527472621770354</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.02544352252018</v>
+        <v>3.804844365817919</v>
       </c>
       <c r="C64">
-        <v>3.93683445717575</v>
+        <v>2.54768645272489</v>
       </c>
       <c r="D64">
-        <v>4.714179241194086</v>
+        <v>2.627960682892404</v>
       </c>
       <c r="E64">
-        <v>4.004361637579723</v>
+        <v>2.413612358187728</v>
       </c>
       <c r="F64">
-        <v>4.185204942091842</v>
+        <v>2.550265015953453</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.064549604182872</v>
+        <v>3.854893728053307</v>
       </c>
       <c r="C65">
-        <v>4.000138549061884</v>
+        <v>2.575063711488745</v>
       </c>
       <c r="D65">
-        <v>4.779356145798566</v>
+        <v>2.667186537704721</v>
       </c>
       <c r="E65">
-        <v>4.051062947165885</v>
+        <v>2.437111524285232</v>
       </c>
       <c r="F65">
-        <v>4.248304089786869</v>
+        <v>2.574814075952957</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.104340128395058</v>
+        <v>3.906753008173829</v>
       </c>
       <c r="C66">
-        <v>4.064647447093823</v>
+        <v>2.604267491824062</v>
       </c>
       <c r="D66">
-        <v>4.845768194257325</v>
+        <v>2.71002879072846</v>
       </c>
       <c r="E66">
-        <v>4.098156449132795</v>
+        <v>2.462424196056671</v>
       </c>
       <c r="F66">
-        <v>4.313546489659219</v>
+        <v>2.601377165998305</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.144909322772553</v>
+        <v>3.960604782515614</v>
       </c>
       <c r="C67">
-        <v>4.130225463453287</v>
+        <v>2.635441377161259</v>
       </c>
       <c r="D67">
-        <v>4.913463627255094</v>
+        <v>2.756639030168226</v>
       </c>
       <c r="E67">
-        <v>4.145643951569904</v>
+        <v>2.489774669854285</v>
       </c>
       <c r="F67">
-        <v>4.381059081215992</v>
+        <v>2.630252926427534</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.18635424899218</v>
+        <v>4.01664624910543</v>
       </c>
       <c r="C68">
-        <v>4.19673739384479</v>
+        <v>2.668728980429312</v>
       </c>
       <c r="D68">
-        <v>4.982481738063416</v>
+        <v>2.807043379750052</v>
       </c>
       <c r="E68">
-        <v>4.193525205938479</v>
+        <v>2.51941261728672</v>
       </c>
       <c r="F68">
-        <v>4.450959191547544</v>
+        <v>2.661782472982483</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.228774421129482</v>
+        <v>4.075086492877914</v>
       </c>
       <c r="C69">
-        <v>4.264051254691871</v>
+        <v>2.704268606629619</v>
       </c>
       <c r="D69">
-        <v>5.052851550631569</v>
+        <v>2.861120170863991</v>
       </c>
       <c r="E69">
-        <v>4.241797724465015</v>
+        <v>2.551609787872981</v>
       </c>
       <c r="F69">
-        <v>4.523350300730873</v>
+        <v>2.696345434618484</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.272271186109125</v>
+        <v>4.136142199858482</v>
       </c>
       <c r="C70">
-        <v>4.332039962158773</v>
+        <v>2.742186515361629</v>
       </c>
       <c r="D70">
-        <v>5.124590677323169</v>
+        <v>2.918603931292134</v>
       </c>
       <c r="E70">
-        <v>4.290456673374982</v>
+        <v>2.586651552852357</v>
       </c>
       <c r="F70">
-        <v>4.598317426228953</v>
+        <v>2.734347233829469</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.316946724603814</v>
+        <v>4.200030777592321</v>
       </c>
       <c r="C71">
-        <v>4.400582199062986</v>
+        <v>2.782588989113531</v>
       </c>
       <c r="D71">
-        <v>5.197704387002378</v>
+        <v>2.979115513259732</v>
       </c>
       <c r="E71">
-        <v>4.339494842931344</v>
+        <v>2.624822119044647</v>
       </c>
       <c r="F71">
-        <v>4.675922326138712</v>
+        <v>2.776191518729048</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.362902505742746</v>
+        <v>4.266960470532879</v>
       </c>
       <c r="C72">
-        <v>4.469562734535113</v>
+        <v>2.825553827198371</v>
       </c>
       <c r="D72">
-        <v>5.272184914549854</v>
+        <v>3.042211839174661</v>
       </c>
       <c r="E72">
-        <v>4.388902688797184</v>
+        <v>2.66638154393888</v>
       </c>
       <c r="F72">
-        <v>4.756198913407062</v>
+        <v>2.822235807221915</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.410237015501063</v>
+        <v>4.337117848487252</v>
       </c>
       <c r="C73">
-        <v>4.538872436362859</v>
+        <v>2.871122087951844</v>
       </c>
       <c r="D73">
-        <v>5.348011050230645</v>
+        <v>3.107438069033479</v>
       </c>
       <c r="E73">
-        <v>4.43866843645835</v>
+        <v>2.711534644371419</v>
       </c>
       <c r="F73">
-        <v>4.839149275464155</v>
+        <v>2.872731505959804</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.459042588858294</v>
+        <v>4.410652857374626</v>
       </c>
       <c r="C74">
-        <v>4.608408141003901</v>
+        <v>2.919291377108236</v>
       </c>
       <c r="D74">
-        <v>5.425148041835948</v>
+        <v>3.174369222112722</v>
       </c>
       <c r="E74">
-        <v>4.488778238074616</v>
+        <v>2.760395760105604</v>
       </c>
       <c r="F74">
-        <v>4.924740772106572</v>
+        <v>2.927759742705976</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.509401225513876</v>
+        <v>4.487663090435451</v>
       </c>
       <c r="C75">
-        <v>4.678072484319089</v>
+        <v>2.970012207381194</v>
       </c>
       <c r="D75">
-        <v>5.503547846209737</v>
+        <v>3.242635005573239</v>
       </c>
       <c r="E75">
-        <v>4.539216367997808</v>
+        <v>2.812957086425667</v>
       </c>
       <c r="F75">
-        <v>5.012904645145004</v>
+        <v>2.987186627599423</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.561379374944047</v>
+        <v>4.568179439294011</v>
       </c>
       <c r="C76">
-        <v>4.747773739908039</v>
+        <v>3.023188409165689</v>
       </c>
       <c r="D76">
-        <v>5.583149758953971</v>
+        <v>3.311928963918966</v>
       </c>
       <c r="E76">
-        <v>4.589965446394602</v>
+        <v>2.869070914578392</v>
       </c>
       <c r="F76">
-        <v>5.103536444572075</v>
+        <v>3.050661280471562</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.615021850317469</v>
+        <v>4.652156096350464</v>
       </c>
       <c r="C77">
-        <v>4.817425677081238</v>
+        <v>3.078681100930051</v>
       </c>
       <c r="D77">
-        <v>5.663881407898764</v>
+        <v>3.382006685783784</v>
       </c>
       <c r="E77">
-        <v>4.64100667735381</v>
+        <v>2.928455168590437</v>
       </c>
       <c r="F77">
-        <v>5.196498379823076</v>
+        <v>3.117664810028729</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.670345273050033</v>
+        <v>4.739467241897976</v>
       </c>
       <c r="C78">
-        <v>4.886947434677495</v>
+        <v>3.136316840994565</v>
       </c>
       <c r="D78">
-        <v>5.745660099004551</v>
+        <v>3.45267817919852</v>
       </c>
       <c r="E78">
-        <v>4.692320090776297</v>
+        <v>2.990721696800175</v>
       </c>
       <c r="F78">
-        <v>5.291623458100947</v>
+        <v>3.187592925043526</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.727331715222714</v>
+        <v>4.829912044813337</v>
       </c>
       <c r="C79">
-        <v>4.95626340017795</v>
+        <v>3.195898231288417</v>
       </c>
       <c r="D79">
-        <v>5.8283944545759</v>
+        <v>3.52379821631051</v>
       </c>
       <c r="E79">
-        <v>4.743884781272733</v>
+        <v>3.055421160808522</v>
       </c>
       <c r="F79">
-        <v>5.388721040268099</v>
+        <v>3.25984048247097</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.785923387759775</v>
+        <v>4.923227484108936</v>
       </c>
       <c r="C80">
-        <v>5.025303084369813</v>
+        <v>3.257215240900587</v>
       </c>
       <c r="D80">
-        <v>5.911986258453765</v>
+        <v>3.595256878775029</v>
       </c>
       <c r="E80">
-        <v>4.795679135086127</v>
+        <v>3.122090401794314</v>
       </c>
       <c r="F80">
-        <v>5.487583278678542</v>
+        <v>3.333862757059503</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.846019403050488</v>
+        <v>5.019106738040778</v>
       </c>
       <c r="C81">
-        <v>5.094000984999965</v>
+        <v>3.32005592071095</v>
       </c>
       <c r="D81">
-        <v>5.996332410907153</v>
+        <v>3.666971344667438</v>
       </c>
       <c r="E81">
-        <v>4.847681041482542</v>
+        <v>3.190291162013306</v>
       </c>
       <c r="F81">
-        <v>5.587991834240874</v>
+        <v>3.409205114458455</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.907475516533014</v>
+        <v>5.117219796091016</v>
       </c>
       <c r="C82">
-        <v>5.162296436325891</v>
+        <v>3.384215323970133</v>
       </c>
       <c r="D82">
-        <v>6.081326884283976</v>
+        <v>3.738879220454673</v>
       </c>
       <c r="E82">
-        <v>4.899868085810131</v>
+        <v>3.259634410093784</v>
       </c>
       <c r="F82">
-        <v>5.689724309829933</v>
+        <v>3.485508039986822</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.970107353798726</v>
+        <v>5.217232904091705</v>
       </c>
       <c r="C83">
-        <v>5.230133444153562</v>
+        <v>3.449501977513031</v>
       </c>
       <c r="D83">
-        <v>6.16686258220721</v>
+        <v>3.810933346698854</v>
       </c>
       <c r="E83">
-        <v>4.95221772142833</v>
+        <v>3.329790732755112</v>
       </c>
       <c r="F83">
-        <v>5.792559955326716</v>
+        <v>3.562497124080776</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.033696900852245</v>
+        <v>5.318824393586952</v>
       </c>
       <c r="C84">
-        <v>5.297460509074789</v>
+        <v>3.515741953456162</v>
       </c>
       <c r="D84">
-        <v>6.252833020337171</v>
+        <v>3.883097857594309</v>
       </c>
       <c r="E84">
-        <v>5.004707422696176</v>
+        <v>3.400490464047889</v>
       </c>
       <c r="F84">
-        <v>5.896284364058594</v>
+        <v>3.639967526256626</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.098001623302017</v>
+        <v>5.421695836429164</v>
       </c>
       <c r="C85">
-        <v>5.36423043856403</v>
+        <v>3.582780771884836</v>
       </c>
       <c r="D85">
-        <v>6.339133774281078</v>
+        <v>3.955345240825018</v>
       </c>
       <c r="E85">
-        <v>5.057314813099651</v>
+        <v>3.471517900526151</v>
       </c>
       <c r="F85">
-        <v>6.000693047948745</v>
+        <v>3.717768129510117</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.162765351675676</v>
+        <v>5.525578452186187</v>
       </c>
       <c r="C86">
-        <v>5.430400148921967</v>
+        <v>3.650483662478083</v>
       </c>
       <c r="D86">
-        <v>6.425663564943522</v>
+        <v>4.027654169326854</v>
       </c>
       <c r="E86">
-        <v>5.110017760169296</v>
+        <v>3.542703039854352</v>
       </c>
       <c r="F86">
-        <v>6.105593799040978</v>
+        <v>3.795787970427695</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.227729086554519</v>
+        <v>5.630235745645439</v>
       </c>
       <c r="C87">
-        <v>5.495930495769332</v>
+        <v>3.718734699188403</v>
       </c>
       <c r="D87">
-        <v>6.512325590419</v>
+        <v>4.100007909840262</v>
       </c>
       <c r="E87">
-        <v>5.162794559395174</v>
+        <v>3.613913017644869</v>
       </c>
       <c r="F87">
-        <v>6.210808653519398</v>
+        <v>3.873945448870519</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.292640581326584</v>
+        <v>5.735463060293597</v>
       </c>
       <c r="C88">
-        <v>5.560785999667798</v>
+        <v>3.787435223542557</v>
       </c>
       <c r="D88">
-        <v>6.599027459811307</v>
+        <v>4.172393158603097</v>
       </c>
       <c r="E88">
-        <v>5.215623849413937</v>
+        <v>3.685044361396059</v>
       </c>
       <c r="F88">
-        <v>6.316173648806917</v>
+        <v>3.952180231498697</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.357262369821365</v>
+        <v>5.841085459748382</v>
       </c>
       <c r="C89">
-        <v>5.624934714905577</v>
+        <v>3.856501958597521</v>
       </c>
       <c r="D89">
-        <v>6.685682207778785</v>
+        <v>4.244799189364937</v>
       </c>
       <c r="E89">
-        <v>5.268484807266308</v>
+        <v>3.756016484929915</v>
       </c>
       <c r="F89">
-        <v>6.421539535688893</v>
+        <v>4.030447313236887</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.421377647168914</v>
+        <v>5.946954810805446</v>
       </c>
       <c r="C90">
-        <v>5.688347987404242</v>
+        <v>3.925865015489614</v>
       </c>
       <c r="D90">
-        <v>6.772208234252838</v>
+        <v>4.317217228815034</v>
       </c>
       <c r="E90">
-        <v>5.321357150922688</v>
+        <v>3.826766465577327</v>
       </c>
       <c r="F90">
-        <v>6.526771226120687</v>
+        <v>4.108712749820041</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.484793501691468</v>
+        <v>6.052946234925641</v>
       </c>
       <c r="C91">
-        <v>5.751000340071448</v>
+        <v>3.995465985358691</v>
       </c>
       <c r="D91">
-        <v>6.858529517867281</v>
+        <v>4.389639997309311</v>
       </c>
       <c r="E91">
-        <v>5.374221185180005</v>
+        <v>3.897244951787842</v>
       </c>
       <c r="F91">
-        <v>6.631747170882455</v>
+        <v>4.186950570474637</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.547342382902804</v>
+        <v>6.158954848563655</v>
       </c>
       <c r="C92">
-        <v>5.812869210600003</v>
+        <v>4.065256173637823</v>
       </c>
       <c r="D92">
-        <v>6.944575542945964</v>
+        <v>4.462061369363446</v>
       </c>
       <c r="E92">
-        <v>5.427057846274248</v>
+        <v>3.967412993923647</v>
       </c>
       <c r="F92">
-        <v>6.736358255404999</v>
+        <v>4.265140613114315</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.608882014240588</v>
+        <v>6.264892631950483</v>
       </c>
       <c r="C93">
-        <v>5.873934790643577</v>
+        <v>4.135195018741471</v>
       </c>
       <c r="D93">
-        <v>7.030281075531653</v>
+        <v>4.534476122437581</v>
       </c>
       <c r="E93">
-        <v>5.479848710225954</v>
+        <v>4.037239697589873</v>
       </c>
       <c r="F93">
-        <v>6.840506912443943</v>
+        <v>4.343267029300122</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.669294282784309</v>
+        <v>6.370685677659498</v>
       </c>
       <c r="C94">
-        <v>5.934179869273754</v>
+        <v>4.205248747688127</v>
       </c>
       <c r="D94">
-        <v>7.115585988376992</v>
+        <v>4.606879746624916</v>
       </c>
       <c r="E94">
-        <v>5.532576008333572</v>
+        <v>4.10670040520962</v>
       </c>
       <c r="F94">
-        <v>6.944106167456803</v>
+        <v>4.421317134387505</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.72848331225162</v>
+        <v>6.476271850356387</v>
       </c>
       <c r="C95">
-        <v>5.993589652673942</v>
+        <v>4.275389233775947</v>
       </c>
       <c r="D95">
-        <v>7.20043503547615</v>
+        <v>4.679268301290381</v>
       </c>
       <c r="E95">
-        <v>5.585222638384751</v>
+        <v>4.175775302478129</v>
       </c>
       <c r="F95">
-        <v>7.047078624703262</v>
+        <v>4.499280620759118</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.786373230908256</v>
+        <v>6.581598819664056</v>
       </c>
       <c r="C96">
-        <v>6.052151594303234</v>
+        <v>4.345593031445044</v>
       </c>
       <c r="D96">
-        <v>7.284777566690888</v>
+        <v>4.751638311795614</v>
       </c>
       <c r="E96">
-        <v>5.637772167057439</v>
+        <v>4.244448398142151</v>
       </c>
       <c r="F96">
-        <v>7.149355398093562</v>
+        <v>4.577149002177207</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.842905885891865</v>
+        <v>6.686622398551008</v>
       </c>
       <c r="C97">
-        <v>6.109855247329127</v>
+        <v>4.415840553946156</v>
       </c>
       <c r="D97">
-        <v>7.368567209471273</v>
+        <v>4.823986685893414</v>
       </c>
       <c r="E97">
-        <v>5.690208828842256</v>
+        <v>4.312706733517526</v>
       </c>
       <c r="F97">
-        <v>7.250875330557146</v>
+        <v>4.654915193669312</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.898038566874019</v>
+        <v>6.791305172562664</v>
       </c>
       <c r="C98">
-        <v>6.166692128621935</v>
+        <v>4.486115397034312</v>
       </c>
       <c r="D98">
-        <v>7.451761588720037</v>
+        <v>4.89631064910885</v>
       </c>
       <c r="E98">
-        <v>5.742517521880295</v>
+        <v>4.380539778800201</v>
       </c>
       <c r="F98">
-        <v>7.351584250438087</v>
+        <v>4.732573210956675</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.951741846231141</v>
+        <v>6.895615395410838</v>
       </c>
       <c r="C99">
-        <v>6.222655575899013</v>
+        <v>4.556403787642886</v>
       </c>
       <c r="D99">
-        <v>7.534322067656643</v>
+        <v>4.968607695577186</v>
       </c>
       <c r="E99">
-        <v>5.794683800198767</v>
+        <v>4.447938974854121</v>
       </c>
       <c r="F99">
-        <v>7.451434223585403</v>
+        <v>4.810117948679256</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.003997615512835</v>
+        <v>6.999526068184285</v>
       </c>
       <c r="C100">
-        <v>6.277740613701764</v>
+        <v>4.626694130358095</v>
       </c>
       <c r="D100">
-        <v>7.616213484578887</v>
+        <v>5.040875550266899</v>
       </c>
       <c r="E100">
-        <v>5.846693862657688</v>
+        <v>4.514897375959086</v>
       </c>
       <c r="F100">
-        <v>7.55038289515182</v>
+        <v>4.887545015068183</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.054797352988905</v>
+        <v>7.103014193684755</v>
       </c>
       <c r="C101">
-        <v>6.331943830842276</v>
+        <v>4.696976631406484</v>
       </c>
       <c r="D101">
-        <v>7.697403895394535</v>
+        <v>5.113112137915172</v>
       </c>
       <c r="E101">
-        <v>5.898534542223784</v>
+        <v>4.581409373039395</v>
       </c>
       <c r="F101">
-        <v>7.648392922685068</v>
+        <v>4.964850606074266</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.104140604340328</v>
+        <v>7.206060160138909</v>
       </c>
       <c r="C102">
-        <v>6.385263254449385</v>
+        <v>4.767242988572386</v>
       </c>
       <c r="D102">
-        <v>7.777864344008451</v>
+        <v>5.185315558069878</v>
       </c>
       <c r="E102">
-        <v>5.950193292274902</v>
+        <v>4.647470475603456</v>
       </c>
       <c r="F102">
-        <v>7.745431360579111</v>
+        <v>5.042031410817867</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.152033675321165</v>
+        <v>7.308647242742778</v>
       </c>
       <c r="C103">
-        <v>6.437698249119252</v>
+        <v>4.837486137721703</v>
       </c>
       <c r="D103">
-        <v>7.857568584897344</v>
+        <v>5.257484065528771</v>
       </c>
       <c r="E103">
-        <v>6.001658171610843</v>
+        <v>4.713077139430855</v>
       </c>
       <c r="F103">
-        <v>7.841469387466256</v>
+        <v>5.119084538191232</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.198488501976566</v>
+        <v>7.410761185670204</v>
       </c>
       <c r="C104">
-        <v>6.489249411252618</v>
+        <v>4.90770004559196</v>
       </c>
       <c r="D104">
-        <v>7.936492944553458</v>
+        <v>5.329616053887827</v>
       </c>
       <c r="E104">
-        <v>6.052917829590168</v>
+        <v>4.778226630013748</v>
       </c>
       <c r="F104">
-        <v>7.936481856356087</v>
+        <v>5.196007459398045</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.243521658109231</v>
+        <v>7.512389862629515</v>
       </c>
       <c r="C105">
-        <v>6.539918469491273</v>
+        <v>4.977879539222901</v>
       </c>
       <c r="D105">
-        <v>8.014616120170771</v>
+        <v>5.401710041891402</v>
       </c>
       <c r="E105">
-        <v>6.103961489993728</v>
+        <v>4.842916908489857</v>
       </c>
       <c r="F105">
-        <v>8.030446893146141</v>
+        <v>5.272797962174283</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.287153521150237</v>
+        <v>7.613522990698768</v>
       </c>
       <c r="C106">
-        <v>6.589708192032326</v>
+        <v>5.048020164990655</v>
       </c>
       <c r="D106">
-        <v>8.091919006098195</v>
+        <v>5.473764662070329</v>
       </c>
       <c r="E106">
-        <v>6.154778933801383</v>
+        <v>4.907146538845856</v>
       </c>
       <c r="F106">
-        <v>8.123345569122117</v>
+        <v>5.349454112563903</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.329407565595516</v>
+        <v>7.714151894686386</v>
       </c>
       <c r="C107">
-        <v>6.638622297583204</v>
+        <v>5.118118072308766</v>
       </c>
       <c r="D107">
-        <v>8.168384522961716</v>
+        <v>5.545778651008339</v>
       </c>
       <c r="E107">
-        <v>6.205360483934356</v>
+        <v>4.970914615758643</v>
       </c>
       <c r="F107">
-        <v>8.215161643071392</v>
+        <v>5.425974225647826</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6.370309762276945</v>
+        <v>7.814269307052895</v>
       </c>
       <c r="C108">
-        <v>6.686665374325999</v>
+        <v>5.188169917828923</v>
       </c>
       <c r="D108">
-        <v>8.243997465911422</v>
+        <v>5.617750841057501</v>
       </c>
       <c r="E108">
-        <v>6.25569698561195</v>
+        <v>5.03422070367513</v>
       </c>
       <c r="F108">
-        <v>8.305881325428086</v>
+        <v>5.502356841655946</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6.40988806675631</v>
+        <v>7.913869201962075</v>
       </c>
       <c r="C109">
-        <v>6.733842803354752</v>
+        <v>5.258172786303562</v>
       </c>
       <c r="D109">
-        <v>8.31874437105291</v>
+        <v>5.689680153115463</v>
       </c>
       <c r="E109">
-        <v>6.305779790815262</v>
+        <v>5.097064782399246</v>
       </c>
       <c r="F109">
-        <v>8.395493049760416</v>
+        <v>5.578600704637661</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6.448171984371705</v>
+        <v>8.012946650580657</v>
       </c>
       <c r="C110">
-        <v>6.780160687164412</v>
+        <v>5.32812412490238</v>
       </c>
       <c r="D110">
-        <v>8.392613400174426</v>
+        <v>5.761565590165675</v>
       </c>
       <c r="E110">
-        <v>6.355600740946485</v>
+        <v>5.159447200578508</v>
       </c>
       <c r="F110">
-        <v>8.483987279801307</v>
+        <v>5.654704743604551</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6.485192199988178</v>
+        <v>8.111497695766392</v>
       </c>
       <c r="C111">
-        <v>6.825625781827227</v>
+        <v>5.398021690786637</v>
       </c>
       <c r="D111">
-        <v>8.465594224595346</v>
+        <v>5.833406231546933</v>
       </c>
       <c r="E111">
-        <v>6.405152150063405</v>
+        <v>5.221368637328601</v>
       </c>
       <c r="F111">
-        <v>8.571356295201987</v>
+        <v>5.730668056674373</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6.520980260286684</v>
+        <v>8.209519249901598</v>
       </c>
       <c r="C112">
-        <v>6.870245434876167</v>
+        <v>5.467863501740034</v>
       </c>
       <c r="D112">
-        <v>8.53767791571504</v>
+        <v>5.905201227947098</v>
       </c>
       <c r="E112">
-        <v>6.454426788417462</v>
+        <v>5.28283006941318</v>
       </c>
       <c r="F112">
-        <v>8.65759407417484</v>
+        <v>5.806489897686198</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6.555568310789343</v>
+        <v>8.307009007204757</v>
       </c>
       <c r="C113">
-        <v>6.914027526282447</v>
+        <v>5.537647803837032</v>
       </c>
       <c r="D113">
-        <v>8.608856849032225</v>
+        <v>5.976949797047781</v>
       </c>
       <c r="E113">
-        <v>6.503417865715414</v>
+        <v>5.343832742624186</v>
       </c>
       <c r="F113">
-        <v>8.742696049587742</v>
+        <v>5.882169664284969</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6.588988871574277</v>
+        <v>8.403965364156345</v>
       </c>
       <c r="C114">
-        <v>6.956980413130156</v>
+        <v>5.60737302398461</v>
       </c>
       <c r="D114">
-        <v>8.679124617079163</v>
+        <v>6.048651219367883</v>
       </c>
       <c r="E114">
-        <v>6.552119014953026</v>
+        <v>5.404378144665192</v>
       </c>
       <c r="F114">
-        <v>8.826659120772373</v>
+        <v>5.957706887492663</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.621274645257055</v>
+        <v>8.500387348141107</v>
       </c>
       <c r="C115">
-        <v>6.999112879112539</v>
+        <v>5.677037759339305</v>
       </c>
       <c r="D115">
-        <v>8.748475929056031</v>
+        <v>6.120304834373264</v>
       </c>
       <c r="E115">
-        <v>6.600524276553008</v>
+        <v>5.46446798328977</v>
       </c>
       <c r="F115">
-        <v>8.909481482314304</v>
+        <v>6.033101220918644</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.652458354336179</v>
+        <v>8.596274555861426</v>
       </c>
       <c r="C116">
-        <v>7.040434085622715</v>
+        <v>5.746640754941147</v>
       </c>
       <c r="D116">
-        <v>8.816906557590777</v>
+        <v>6.191910036947141</v>
       </c>
       <c r="E116">
-        <v>6.6486280827507</v>
+        <v>5.524104162102956</v>
       </c>
       <c r="F116">
-        <v>8.991162501257882</v>
+        <v>6.108352432171197</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6.682572603249195</v>
+        <v>8.691627100161845</v>
       </c>
       <c r="C117">
-        <v>7.080953528811921</v>
+        <v>5.816180875623127</v>
       </c>
       <c r="D117">
-        <v>8.884413221760742</v>
+        <v>6.263466274245451</v>
       </c>
       <c r="E117">
-        <v>6.696425242349984</v>
+        <v>5.583288764994638</v>
       </c>
       <c r="F117">
-        <v>9.071702615197548</v>
+        <v>6.183460395529517</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.711649762279225</v>
+        <v>8.786445562681019</v>
       </c>
       <c r="C118">
-        <v>7.120680997881644</v>
+        <v>5.885657101249553</v>
       </c>
       <c r="D118">
-        <v>8.95099358127152</v>
+        <v>6.334973042732044</v>
       </c>
       <c r="E118">
-        <v>6.743910926426998</v>
+        <v>5.642024041384927</v>
       </c>
       <c r="F118">
-        <v>9.151103266010978</v>
+        <v>6.258425082201907</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6.739721870395197</v>
+        <v>8.880730952531627</v>
       </c>
       <c r="C119">
-        <v>7.159626536533337</v>
+        <v>5.955068506008543</v>
       </c>
       <c r="D119">
-        <v>9.016646113360796</v>
+        <v>6.406429885417472</v>
       </c>
       <c r="E119">
-        <v>6.791080653767431</v>
+        <v>5.700312388481548</v>
       </c>
       <c r="F119">
-        <v>9.229366767369255</v>
+        <v>6.333246556955912</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6.766820553955342</v>
+        <v>8.974484664803727</v>
       </c>
       <c r="C120">
-        <v>7.197800407690162</v>
+        <v>6.024414246706624</v>
       </c>
       <c r="D120">
-        <v>9.08137011480866</v>
+        <v>6.477836389287271</v>
       </c>
       <c r="E120">
-        <v>6.837930276672621</v>
+        <v>5.758156338580569</v>
       </c>
       <c r="F120">
-        <v>9.30649619074341</v>
+        <v>6.407924970003207</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6.792976958069556</v>
+        <v>9.06770845185774</v>
       </c>
       <c r="C121">
-        <v>7.235213059468353</v>
+        <v>6.093693552529935</v>
       </c>
       <c r="D121">
-        <v>9.145165603118723</v>
+        <v>6.549192182971018</v>
       </c>
       <c r="E121">
-        <v>6.884455967753706</v>
+        <v>5.815558546299844</v>
       </c>
       <c r="F121">
-        <v>9.382495441986547</v>
+        <v>6.482460550958073</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6.818221697941447</v>
+        <v>9.16040437309543</v>
       </c>
       <c r="C122">
-        <v>7.271875096063448</v>
+        <v>6.162905719397532</v>
       </c>
       <c r="D122">
-        <v>9.208033292536458</v>
+        <v>6.620496934189301</v>
       </c>
       <c r="E122">
-        <v>6.930654206785446</v>
+        <v>5.872521776632635</v>
       </c>
       <c r="F122">
-        <v>9.457369105389521</v>
+        <v>6.556853603991975</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6.842584798426791</v>
+        <v>9.252574796028963</v>
       </c>
       <c r="C123">
-        <v>7.307797249285875</v>
+        <v>6.232050100423521</v>
       </c>
       <c r="D123">
-        <v>9.269974533254375</v>
+        <v>6.69175034789785</v>
       </c>
       <c r="E123">
-        <v>6.976521767340783</v>
+        <v>5.929048893187518</v>
       </c>
       <c r="F123">
-        <v>9.531122430086263</v>
+        <v>6.631104502439128</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6.866095681282474</v>
+        <v>9.344222336447288</v>
       </c>
       <c r="C124">
-        <v>7.342990355041686</v>
+        <v>6.301126101255655</v>
       </c>
       <c r="D124">
-        <v>9.330991262151155</v>
+        <v>6.762952164036752</v>
       </c>
       <c r="E124">
-        <v>7.022055705247249</v>
+        <v>5.985142850167613</v>
       </c>
       <c r="F124">
-        <v>9.603761236650023</v>
+        <v>6.705213683564332</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6.888783076370028</v>
+        <v>9.43534986917124</v>
       </c>
       <c r="C125">
-        <v>7.377465319403852</v>
+        <v>6.37013317549041</v>
       </c>
       <c r="D125">
-        <v>9.391085974530496</v>
+        <v>6.834102155623756</v>
       </c>
       <c r="E125">
-        <v>7.067253346369599</v>
+        <v>6.040806682913879</v>
       </c>
       <c r="F125">
-        <v>9.675291867299801</v>
+        <v>6.779181644894838</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.91067508363455</v>
+        <v>9.525960483686593</v>
       </c>
       <c r="C126">
-        <v>7.411233113300615</v>
+        <v>6.439070818696816</v>
       </c>
       <c r="D126">
-        <v>9.45026165747889</v>
+        <v>6.905200127603345</v>
       </c>
       <c r="E126">
-        <v>7.112112274615325</v>
+        <v>6.096043498986734</v>
       </c>
       <c r="F126">
-        <v>9.745721136411611</v>
+        <v>6.853008939956443</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6.931799077983137</v>
+        <v>9.616057473779149</v>
       </c>
       <c r="C127">
-        <v>7.444304723276878</v>
+        <v>6.50793856436629</v>
       </c>
       <c r="D127">
-        <v>9.508521793590688</v>
+        <v>6.976245914116167</v>
       </c>
       <c r="E127">
-        <v>7.156630321474972</v>
+        <v>6.150856471150621</v>
       </c>
       <c r="F127">
-        <v>9.815056289647561</v>
+        <v>6.926696173988751</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.952181759308075</v>
+        <v>9.705644316737649</v>
       </c>
       <c r="C128">
-        <v>7.476691172854003</v>
+        <v>6.576735980997091</v>
       </c>
       <c r="D128">
-        <v>9.565870278264789</v>
+        <v>7.047239378103865</v>
       </c>
       <c r="E128">
-        <v>7.200805555036664</v>
+        <v>6.205248829997712</v>
       </c>
       <c r="F128">
-        <v>9.883304980860185</v>
+        <v>7.000244000893612</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.971849116760227</v>
+        <v>9.794724656924771</v>
       </c>
       <c r="C129">
-        <v>7.508403460206502</v>
+        <v>6.645462668867464</v>
       </c>
       <c r="D129">
-        <v>9.622311440554977</v>
+        <v>7.118180408836373</v>
       </c>
       <c r="E129">
-        <v>7.244636269180707</v>
+        <v>6.25922385719529</v>
       </c>
       <c r="F129">
-        <v>9.950475223277399</v>
+        <v>7.073653119607651</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.990826420704292</v>
+        <v>9.883302289408485</v>
       </c>
       <c r="C130">
-        <v>7.539452588732225</v>
+        <v>6.714118256660096</v>
       </c>
       <c r="D130">
-        <v>9.677849964122268</v>
+        <v>7.189068920988869</v>
       </c>
       <c r="E130">
-        <v>7.28812097403575</v>
+        <v>6.31278487895003</v>
       </c>
       <c r="F130">
-        <v>10.0165753654211</v>
+        <v>7.146924270687365</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.009138233110159</v>
+        <v>9.971381144796029</v>
       </c>
       <c r="C131">
-        <v>7.569849512164152</v>
+        <v>6.782702400475129</v>
       </c>
       <c r="D131">
-        <v>9.732490897352903</v>
+        <v>7.259904853111122</v>
       </c>
       <c r="E131">
-        <v>7.331258386215761</v>
+        <v>6.36593526105279</v>
       </c>
       <c r="F131">
-        <v>10.08161404815353</v>
+        <v>7.220058233597783</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.026808396286259</v>
+        <v>10.05896527704518</v>
       </c>
       <c r="C132">
-        <v>7.599605154464421</v>
+        <v>6.851214780993542</v>
       </c>
       <c r="D132">
-        <v>9.78623959521671</v>
+        <v>7.330688166207068</v>
       </c>
       <c r="E132">
-        <v>7.374047419875271</v>
+        <v>6.418678403258474</v>
       </c>
       <c r="F132">
-        <v>10.14560017803823</v>
+        <v>7.293055823922782</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.043860048286425</v>
+        <v>10.14605885158502</v>
       </c>
       <c r="C133">
-        <v>7.628730371665729</v>
+        <v>6.919655101524879</v>
       </c>
       <c r="D133">
-        <v>9.839101719012355</v>
+        <v>7.401418842943919</v>
       </c>
       <c r="E133">
-        <v>7.416487176662028</v>
+        <v>6.471017734043038</v>
       </c>
       <c r="F133">
-        <v>10.20854289988534</v>
+        <v>7.365917890473145</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.060315623929782</v>
+        <v>10.23266613399108</v>
       </c>
       <c r="C134">
-        <v>7.657235958137097</v>
+        <v>6.988023086801187</v>
       </c>
       <c r="D134">
-        <v>9.891083189394617</v>
+        <v>7.472096885935029</v>
       </c>
       <c r="E134">
-        <v>7.458576937369328</v>
+        <v>6.522956706730613</v>
       </c>
       <c r="F134">
-        <v>10.27045157588243</v>
+        <v>7.438645313105592</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.076196860232232</v>
+        <v>10.31879148006014</v>
       </c>
       <c r="C135">
-        <v>7.68513262383222</v>
+        <v>7.056318481759233</v>
       </c>
       <c r="D135">
-        <v>9.942190185361225</v>
+        <v>7.542722317255176</v>
       </c>
       <c r="E135">
-        <v>7.500316155407152</v>
+        <v>6.574498795566481</v>
       </c>
       <c r="F135">
-        <v>10.33133572247449</v>
+        <v>7.511239000384099</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.091524817199182</v>
+        <v>10.40443932538514</v>
       </c>
       <c r="C136">
-        <v>7.712430997673659</v>
+        <v>7.12454104845163</v>
       </c>
       <c r="D136">
-        <v>9.992429102291466</v>
+        <v>7.613295176935594</v>
       </c>
       <c r="E136">
-        <v>7.541704442084119</v>
+        <v>6.625647489058628</v>
       </c>
       <c r="F136">
-        <v>10.39120509467483</v>
+        <v>7.58369988722255</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.10631987592993</v>
+        <v>10.48961417627678</v>
       </c>
       <c r="C137">
-        <v>7.73914160640611</v>
+        <v>7.192690568041324</v>
       </c>
       <c r="D137">
-        <v>10.04180655122833</v>
+        <v>7.683815522263411</v>
       </c>
       <c r="E137">
-        <v>7.582741571751616</v>
+        <v>6.676406291749437</v>
       </c>
       <c r="F137">
-        <v>10.45006949787983</v>
+        <v>7.656028933010352</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.120601761285267</v>
+        <v>10.57432060175389</v>
       </c>
       <c r="C138">
-        <v>7.765274880721384</v>
+        <v>7.26076683553114</v>
       </c>
       <c r="D138">
-        <v>10.09032932282182</v>
+        <v>7.754283426797567</v>
       </c>
       <c r="E138">
-        <v>7.623427456818886</v>
+        <v>6.726778711884127</v>
       </c>
       <c r="F138">
-        <v>10.50793889099107</v>
+        <v>7.728227119726315</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.134389547921593</v>
+        <v>10.6585632259473</v>
       </c>
       <c r="C139">
-        <v>7.790841136432555</v>
+        <v>7.32876966240993</v>
       </c>
       <c r="D139">
-        <v>10.13800438456763</v>
+        <v>7.82469897931096</v>
       </c>
       <c r="E139">
-        <v>7.663762160282951</v>
+        <v>6.776768269524936</v>
       </c>
       <c r="F139">
-        <v>10.56482339687799</v>
+        <v>7.80029544999016</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.147701675497476</v>
+        <v>10.74234672081296</v>
       </c>
       <c r="C140">
-        <v>7.815850580047372</v>
+        <v>7.396698874508791</v>
       </c>
       <c r="D140">
-        <v>10.18483885163486</v>
+        <v>7.895062283269541</v>
       </c>
       <c r="E140">
-        <v>7.703745871121201</v>
+        <v>6.826378482925637</v>
       </c>
       <c r="F140">
-        <v>10.62073311833056</v>
+        <v>7.872234945563737</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.16055596431556</v>
+        <v>10.82567579950479</v>
       </c>
       <c r="C141">
-        <v>7.840313293962096</v>
+        <v>7.464554310026128</v>
       </c>
       <c r="D141">
-        <v>10.23083998082771</v>
+        <v>7.965373455686295</v>
       </c>
       <c r="E141">
-        <v>7.743378909680961</v>
+        <v>6.875612873578762</v>
       </c>
       <c r="F141">
-        <v>10.67567834045482</v>
+        <v>7.944046645990375</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.172969626129004</v>
+        <v>10.90855521024605</v>
       </c>
       <c r="C142">
-        <v>7.864239239901258</v>
+        <v>7.532335822013496</v>
       </c>
       <c r="D142">
-        <v>10.27601514851037</v>
+        <v>8.035632626687594</v>
       </c>
       <c r="E142">
-        <v>7.782661717061508</v>
+        <v>6.924474960808346</v>
       </c>
       <c r="F142">
-        <v>10.72966934746553</v>
+        <v>8.015731605990169</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.184959283481605</v>
+        <v>10.99098973061345</v>
       </c>
       <c r="C143">
-        <v>7.887638248548132</v>
+        <v>7.60004327377992</v>
       </c>
       <c r="D143">
-        <v>10.32037184133936</v>
+        <v>8.105839938575826</v>
       </c>
       <c r="E143">
-        <v>7.821594847151864</v>
+        <v>6.97296825853085</v>
       </c>
       <c r="F143">
-        <v>10.78271647335446</v>
+        <v>8.087290896353281</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.196540981522424</v>
+        <v>11.07298416226334</v>
       </c>
       <c r="C144">
-        <v>7.910520021121028</v>
+        <v>7.667676541823018</v>
       </c>
       <c r="D144">
-        <v>10.36391764059113</v>
+        <v>8.175995545246739</v>
       </c>
       <c r="E144">
-        <v>7.860178965184975</v>
+        <v>7.021096276084568</v>
       </c>
       <c r="F144">
-        <v>10.83483012599423</v>
+        <v>8.158725599068449</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.207730205265208</v>
+        <v>11.15454332603704</v>
       </c>
       <c r="C145">
-        <v>7.93289412244076</v>
+        <v>7.735235512539814</v>
       </c>
       <c r="D145">
-        <v>10.40666021013973</v>
+        <v>8.246099611608285</v>
       </c>
       <c r="E145">
-        <v>7.898414836047591</v>
+        <v>7.068862512484485</v>
       </c>
       <c r="F145">
-        <v>10.8860206952947</v>
+        <v>8.23003680999734</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.218541894807932</v>
+        <v>11.2356720574249</v>
       </c>
       <c r="C146">
-        <v>7.954769981635645</v>
+        <v>7.802720083463275</v>
       </c>
       <c r="D146">
-        <v>10.448607286542</v>
+        <v>8.316152312767128</v>
       </c>
       <c r="E146">
-        <v>7.936303326485732</v>
+        <v>7.116270458206066</v>
       </c>
       <c r="F146">
-        <v>10.93629860462762</v>
+        <v>8.301225634968523</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.228990460071975</v>
+        <v>11.31637520235667</v>
       </c>
       <c r="C147">
-        <v>7.976156887574499</v>
+        <v>7.870130161482822</v>
       </c>
       <c r="D147">
-        <v>10.48976666441564</v>
+        <v>8.386153833717691</v>
       </c>
       <c r="E147">
-        <v>7.973845390906018</v>
+        <v>7.163323589826161</v>
       </c>
       <c r="F147">
-        <v>10.98567427039119</v>
+        <v>8.372293189634464</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.239089796679342</v>
+        <v>11.39665761333272</v>
       </c>
       <c r="C148">
-        <v>7.997063989204785</v>
+        <v>7.937465663389848</v>
       </c>
       <c r="D148">
-        <v>10.53014619183636</v>
+        <v>8.456104368543954</v>
       </c>
       <c r="E148">
-        <v>8.011042075744399</v>
+        <v>7.210025372172324</v>
       </c>
       <c r="F148">
-        <v>11.03415809363886</v>
+        <v>8.443240599607179</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.248853300968887</v>
+        <v>11.47652414581361</v>
       </c>
       <c r="C149">
-        <v>8.017500292790466</v>
+        <v>8.004726514589414</v>
       </c>
       <c r="D149">
-        <v>10.56975375327213</v>
+        <v>8.526004120083421</v>
       </c>
       <c r="E149">
-        <v>8.047894506696087</v>
+        <v>7.256379252758745</v>
       </c>
       <c r="F149">
-        <v>11.08176047488454</v>
+        <v>8.514068997103298</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.258293885164668</v>
+        <v>11.55597965490218</v>
       </c>
       <c r="C150">
-        <v>8.037474661910036</v>
+        <v>8.071912649291084</v>
       </c>
       <c r="D150">
-        <v>10.6085972693381</v>
+        <v>8.595853299333863</v>
       </c>
       <c r="E150">
-        <v>8.084403889002283</v>
+        <v>7.302388665264659</v>
       </c>
       <c r="F150">
-        <v>11.12849176343974</v>
+        <v>8.584779522885889</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7.267423992438316</v>
+        <v>11.63502899227306</v>
       </c>
       <c r="C151">
-        <v>8.056995816271462</v>
+        <v>8.139024010051706</v>
       </c>
       <c r="D151">
-        <v>10.64668467865427</v>
+        <v>8.665652124982275</v>
       </c>
       <c r="E151">
-        <v>8.120571502206216</v>
+        <v>7.348057023335628</v>
       </c>
       <c r="F151">
-        <v>11.17436229351907</v>
+        <v>8.6553733227557</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7.276255611669212</v>
+        <v>11.71367700334183</v>
       </c>
       <c r="C152">
-        <v>8.076072331325742</v>
+        <v>8.206060547035147</v>
       </c>
       <c r="D152">
-        <v>10.68402393962844</v>
+        <v>8.735400823057388</v>
       </c>
       <c r="E152">
-        <v>8.156398693379215</v>
+        <v>7.393387724113373</v>
       </c>
       <c r="F152">
-        <v>11.21938235708008</v>
+        <v>8.725851549091756</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7.284800292043408</v>
+        <v>11.79192852465408</v>
       </c>
       <c r="C153">
-        <v>8.094712638472187</v>
+        <v>8.273022218432354</v>
       </c>
       <c r="D153">
-        <v>10.72062301364463</v>
+        <v>8.805099626341908</v>
       </c>
       <c r="E153">
-        <v>8.191886877780078</v>
+        <v>7.438384143857903</v>
       </c>
       <c r="F153">
-        <v>11.26356218444661</v>
+        <v>8.796215358122673</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7.293069157436375</v>
+        <v>11.86978838148135</v>
       </c>
       <c r="C154">
-        <v>8.11292502434587</v>
+        <v>8.33990898926972</v>
       </c>
       <c r="D154">
-        <v>10.75648986679796</v>
+        <v>8.874748774157046</v>
       </c>
       <c r="E154">
-        <v>8.227037528929941</v>
+        <v>7.483049638875817</v>
       </c>
       <c r="F154">
-        <v>11.30691198235356</v>
+        <v>8.866465910827422</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7.30107292043024</v>
+        <v>11.94726138560996</v>
       </c>
       <c r="C155">
-        <v>8.13071763218365</v>
+        <v>8.406720831926698</v>
       </c>
       <c r="D155">
-        <v>10.79163245519111</v>
+        <v>8.944348511896752</v>
       </c>
       <c r="E155">
-        <v>8.261852181610026</v>
+        <v>7.527387544128543</v>
       </c>
       <c r="F155">
-        <v>11.34944187427964</v>
+        <v>8.936604371293383</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7.30882189605915</v>
+        <v>12.02435233330981</v>
       </c>
       <c r="C156">
-        <v>8.148098460895557</v>
+        <v>8.473457725161738</v>
       </c>
       <c r="D156">
-        <v>10.82605872639977</v>
+        <v>9.013899090692883</v>
       </c>
       <c r="E156">
-        <v>8.296332421436881</v>
+        <v>7.571401172073892</v>
       </c>
       <c r="F156">
-        <v>11.39116193375551</v>
+        <v>9.006631906485079</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7.31632601524584</v>
+        <v>12.10106600347144</v>
       </c>
       <c r="C157">
-        <v>8.16507536733938</v>
+        <v>8.540119654391605</v>
       </c>
       <c r="D157">
-        <v>10.85977660676954</v>
+        <v>9.083400766768612</v>
       </c>
       <c r="E157">
-        <v>8.330479887434505</v>
+        <v>7.615093812773001</v>
       </c>
       <c r="F157">
-        <v>11.43208217146524</v>
+        <v>9.076549686082691</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7.323594838004012</v>
+        <v>12.17740715590015</v>
       </c>
       <c r="C158">
-        <v>8.18165606528941</v>
+        <v>8.606706610961846</v>
       </c>
       <c r="D158">
-        <v>10.89279400246222</v>
+        <v>9.152853802016322</v>
       </c>
       <c r="E158">
-        <v>8.364296264563041</v>
+        <v>7.658468732164266</v>
       </c>
       <c r="F158">
-        <v>11.47221251627117</v>
+        <v>9.146358880989405</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7.330637566228142</v>
+        <v>12.25338052975694</v>
       </c>
       <c r="C159">
-        <v>8.197848128365331</v>
+        <v>8.673218592287828</v>
       </c>
       <c r="D159">
-        <v>10.92511878994375</v>
+        <v>9.222258462250279</v>
       </c>
       <c r="E159">
-        <v>8.397783282420878</v>
+        <v>7.701529173043334</v>
       </c>
       <c r="F159">
-        <v>11.51156283608291</v>
+        <v>9.216060664275311</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7.337463056221262</v>
+        <v>12.32899084213465</v>
       </c>
       <c r="C160">
-        <v>8.213658989011599</v>
+        <v>8.739655601347568</v>
       </c>
       <c r="D160">
-        <v>10.95675881675701</v>
+        <v>9.291615017970781</v>
       </c>
       <c r="E160">
-        <v>8.430942712845157</v>
+        <v>7.744278352643882</v>
       </c>
       <c r="F160">
-        <v>11.55014290870664</v>
+        <v>9.285656209146831</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7.344079830877959</v>
+        <v>12.40424278676496</v>
       </c>
       <c r="C161">
-        <v>8.229095941850384</v>
+        <v>8.806017646592959</v>
       </c>
       <c r="D161">
-        <v>10.98772188557257</v>
+        <v>9.360923744411974</v>
       </c>
       <c r="E161">
-        <v>8.463776364411729</v>
+        <v>7.786719464355995</v>
       </c>
       <c r="F161">
-        <v>11.58796243531217</v>
+        <v>9.355146690097628</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7.350496091532845</v>
+        <v>12.47914103284253</v>
       </c>
       <c r="C162">
-        <v>8.244166142781248</v>
+        <v>8.872304741770522</v>
       </c>
       <c r="D162">
-        <v>11.01801576385119</v>
+        <v>9.430184919715103</v>
       </c>
       <c r="E162">
-        <v>8.496286083704314</v>
+        <v>7.828855675137275</v>
       </c>
       <c r="F162">
-        <v>11.62503103702167</v>
+        <v>9.424533281135338</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7.356719729464951</v>
+        <v>12.55369022396057</v>
       </c>
       <c r="C163">
-        <v>8.258876612523169</v>
+        <v>8.93851690554928</v>
       </c>
       <c r="D163">
-        <v>11.04764817700857</v>
+        <v>9.499398826494032</v>
       </c>
       <c r="E163">
-        <v>8.528473747811006</v>
+        <v>7.870690127319207</v>
       </c>
       <c r="F163">
-        <v>11.66135823828085</v>
+        <v>9.493817156466291</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7.362758337129141</v>
+        <v>12.62789497715106</v>
       </c>
       <c r="C164">
-        <v>8.273234236023544</v>
+        <v>9.00465416159633</v>
       </c>
       <c r="D164">
-        <v>11.07662678548898</v>
+        <v>9.568565750519168</v>
       </c>
       <c r="E164">
-        <v>8.560341267090221</v>
+        <v>7.91222593636538</v>
       </c>
       <c r="F164">
-        <v>11.69695348713858</v>
+        <v>9.562999489570636</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7.368619218982427</v>
+        <v>12.7017598820213</v>
       </c>
       <c r="C165">
-        <v>8.287245765912074</v>
+        <v>9.070716538076706</v>
       </c>
       <c r="D165">
-        <v>11.10495921546848</v>
+        <v>9.637685980496407</v>
       </c>
       <c r="E165">
-        <v>8.591890577613681</v>
+        <v>7.953466192171772</v>
       </c>
       <c r="F165">
-        <v>11.73182613076851</v>
+        <v>9.632081453049006</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7.374309402006622</v>
+        <v>12.77528949998112</v>
       </c>
       <c r="C166">
-        <v>8.300917822378107</v>
+        <v>9.136704067791801</v>
       </c>
       <c r="D166">
-        <v>11.13265303735601</v>
+        <v>9.706759808713468</v>
       </c>
       <c r="E166">
-        <v>8.623123642956239</v>
+        <v>7.994413957785603</v>
       </c>
       <c r="F166">
-        <v>11.76598542576217</v>
+        <v>9.701064218547659</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7.37983564595898</v>
+        <v>12.8484883635543</v>
       </c>
       <c r="C167">
-        <v>8.314256896390949</v>
+        <v>9.202616787706718</v>
       </c>
       <c r="D167">
-        <v>11.15971574728579</v>
+        <v>9.775787529696922</v>
       </c>
       <c r="E167">
-        <v>8.654042449706479</v>
+        <v>8.035072269797272</v>
       </c>
       <c r="F167">
-        <v>11.79944054066268</v>
+        <v>9.769948955996274</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7.385204453247152</v>
+        <v>12.92136097576863</v>
       </c>
       <c r="C168">
-        <v>8.327269350032896</v>
+        <v>9.268454739064152</v>
       </c>
       <c r="D168">
-        <v>11.18615480289941</v>
+        <v>9.844769440793701</v>
       </c>
       <c r="E168">
-        <v>8.684649005765129</v>
+        <v>8.075444138022926</v>
       </c>
       <c r="F168">
-        <v>11.83220053939163</v>
+        <v>9.838736834081752</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7.390422078363197</v>
+        <v>12.99391180961908</v>
       </c>
       <c r="C169">
-        <v>8.33996141948589</v>
+        <v>9.334217966972362</v>
       </c>
       <c r="D169">
-        <v>11.21197759238404</v>
+        <v>9.913705841860944</v>
       </c>
       <c r="E169">
-        <v>8.714945339514564</v>
+        <v>8.115532545224564</v>
       </c>
       <c r="F169">
-        <v>11.86427439676244</v>
+        <v>9.907429019179228</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7.395494537305609</v>
+        <v>13.06614530759932</v>
       </c>
       <c r="C170">
-        <v>8.352339215754716</v>
+        <v>9.399906520542951</v>
       </c>
       <c r="D170">
-        <v>11.23719143209015</v>
+        <v>9.982597034691793</v>
       </c>
       <c r="E170">
-        <v>8.7449334955288</v>
+        <v>8.155340447441134</v>
       </c>
       <c r="F170">
-        <v>11.89567098613238</v>
+        <v>9.976026676032266</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7.400427616541953</v>
+        <v>13.1380658812967</v>
       </c>
       <c r="C171">
-        <v>8.364408727424715</v>
+        <v>9.465520452473479</v>
       </c>
       <c r="D171">
-        <v>11.26180358731945</v>
+        <v>10.05144332348902</v>
       </c>
       <c r="E171">
-        <v>8.774615535910604</v>
+        <v>8.194870773319225</v>
       </c>
       <c r="F171">
-        <v>11.92639908094281</v>
+        <v>10.04453096672819</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7.405226881609484</v>
+        <v>13.20967791104639</v>
       </c>
       <c r="C172">
-        <v>8.376175821718256</v>
+        <v>9.531059818867956</v>
       </c>
       <c r="D172">
-        <v>11.28582124670209</v>
+        <v>10.12024501409301</v>
       </c>
       <c r="E172">
-        <v>8.80399353490543</v>
+        <v>8.234126424827895</v>
       </c>
       <c r="F172">
-        <v>11.95646735872459</v>
+        <v>10.11294305116513</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7.40989768546738</v>
+        <v>13.2809857456405</v>
       </c>
       <c r="C173">
-        <v>8.387646247038665</v>
+        <v>9.596524679416301</v>
       </c>
       <c r="D173">
-        <v>11.30925152822818</v>
+        <v>10.18900241411731</v>
       </c>
       <c r="E173">
-        <v>8.833069581081725</v>
+        <v>8.273110276421134</v>
       </c>
       <c r="F173">
-        <v>11.98588439179044</v>
+        <v>10.18126408653082</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7.414445176593633</v>
+        <v>13.35199370208845</v>
       </c>
       <c r="C174">
-        <v>8.398825634335724</v>
+        <v>9.661915097303874</v>
       </c>
       <c r="D174">
-        <v>11.33210148910323</v>
+        <v>10.25771583311467</v>
       </c>
       <c r="E174">
-        <v>8.861845772092027</v>
+        <v>8.311825175900797</v>
       </c>
       <c r="F174">
-        <v>12.01465865610061</v>
+        <v>10.24949522723306</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7.418874306796246</v>
+        <v>13.42270606542484</v>
       </c>
       <c r="C175">
-        <v>8.409719499587982</v>
+        <v>9.727231138255954</v>
       </c>
       <c r="D175">
-        <v>11.35437810495601</v>
+        <v>10.32638558173425</v>
       </c>
       <c r="E175">
-        <v>8.890324215852271</v>
+        <v>8.35027394361037</v>
       </c>
       <c r="F175">
-        <v>12.04279852552893</v>
+        <v>10.31763762489706</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7.423189838728505</v>
+        <v>13.49312708856152</v>
       </c>
       <c r="C176">
-        <v>8.420333244896256</v>
+        <v>9.792472871135811</v>
       </c>
       <c r="D176">
-        <v>11.37608827958458</v>
+        <v>10.39501197226887</v>
       </c>
       <c r="E176">
-        <v>8.918507027938219</v>
+        <v>8.388459373275404</v>
       </c>
       <c r="F176">
-        <v>12.0703122704029</v>
+        <v>10.38569242795107</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7.427396353140225</v>
+        <v>13.56326099218074</v>
       </c>
       <c r="C177">
-        <v>8.430672160880585</v>
+        <v>9.857640368687791</v>
       </c>
       <c r="D177">
-        <v>11.39723884971801</v>
+        <v>10.46359531829298</v>
       </c>
       <c r="E177">
-        <v>8.946396329933028</v>
+        <v>8.426384231351321</v>
       </c>
       <c r="F177">
-        <v>12.09720806445507</v>
+        <v>10.45366078190427</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7.43149825589822</v>
+        <v>13.63311196466628</v>
       </c>
       <c r="C178">
-        <v>8.44074142898867</v>
+        <v>9.922733705258027</v>
       </c>
       <c r="D178">
-        <v>11.4178365679145</v>
+        <v>10.53213593433026</v>
       </c>
       <c r="E178">
-        <v>8.973994249415419</v>
+        <v>8.464051257681355</v>
       </c>
       <c r="F178">
-        <v>12.12349397538822</v>
+        <v>10.52154382879039</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7.435499784733625</v>
+        <v>13.70268416206999</v>
       </c>
       <c r="C179">
-        <v>8.45054612209834</v>
+        <v>9.987752958135889</v>
       </c>
       <c r="D179">
-        <v>11.43788811277024</v>
+        <v>10.60063413625364</v>
       </c>
       <c r="E179">
-        <v>9.001302916898096</v>
+        <v>8.5014631652052</v>
       </c>
       <c r="F179">
-        <v>12.14917797230956</v>
+        <v>10.58934270755378</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7.439405015749329</v>
+        <v>13.77198170811094</v>
       </c>
       <c r="C180">
-        <v>8.46009120759749</v>
+        <v>10.05269820781323</v>
       </c>
       <c r="D180">
-        <v>11.45740009456109</v>
+        <v>10.6690902406332</v>
       </c>
       <c r="E180">
-        <v>9.028324467927813</v>
+        <v>8.538622640262957</v>
       </c>
       <c r="F180">
-        <v>12.17426792362501</v>
+        <v>10.6570585535058</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7.443217869685163</v>
+        <v>13.8410086942049</v>
       </c>
       <c r="C181">
-        <v>8.469381549775123</v>
+        <v>10.1175695369083</v>
       </c>
       <c r="D181">
-        <v>11.47637903618342</v>
+        <v>10.73750456497155</v>
       </c>
       <c r="E181">
-        <v>9.055061036762021</v>
+        <v>8.575532342683431</v>
       </c>
       <c r="F181">
-        <v>12.19877159465478</v>
+        <v>10.72469249860883</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7.446942117963427</v>
+        <v>13.90976917952185</v>
       </c>
       <c r="C182">
-        <v>8.478421909853411</v>
+        <v>10.18236703022283</v>
       </c>
       <c r="D182">
-        <v>11.49483138676047</v>
+        <v>10.80587742762041</v>
       </c>
       <c r="E182">
-        <v>9.081514757627936</v>
+        <v>8.612194905822092</v>
       </c>
       <c r="F182">
-        <v>12.22269665341713</v>
+        <v>10.79224567120664</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7.450581388510146</v>
+        <v>13.97826719106927</v>
       </c>
       <c r="C183">
-        <v>8.48721694931162</v>
+        <v>10.24709077510888</v>
       </c>
       <c r="D183">
-        <v>11.51276352418836</v>
+        <v>10.87420914743552</v>
       </c>
       <c r="E183">
-        <v>9.107687768959238</v>
+        <v>8.648612936891046</v>
       </c>
       <c r="F183">
-        <v>12.24605066485604</v>
+        <v>10.85971919600567</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7.454139171360922</v>
+        <v>14.04650672379944</v>
       </c>
       <c r="C184">
-        <v>8.495771231538205</v>
+        <v>10.31174086134981</v>
       </c>
       <c r="D184">
-        <v>11.53018174007647</v>
+        <v>10.94250004404428</v>
       </c>
       <c r="E184">
-        <v>9.13358220398913</v>
+        <v>8.684789016863176</v>
       </c>
       <c r="F184">
-        <v>12.26884109549138</v>
+        <v>10.92711419410185</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7.457618824049423</v>
+        <v>14.11449174073873</v>
       </c>
       <c r="C185">
-        <v>8.504089223477461</v>
+        <v>10.37631738044876</v>
       </c>
       <c r="D185">
-        <v>11.54709225137243</v>
+        <v>11.01075043752094</v>
       </c>
       <c r="E185">
-        <v>9.159200190668411</v>
+        <v>8.720725700917162</v>
       </c>
       <c r="F185">
-        <v>12.29107531335642</v>
+        <v>10.9944317827645</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7.46102357680154</v>
+        <v>14.1822261731372</v>
       </c>
       <c r="C186">
-        <v>8.512175297368717</v>
+        <v>10.44082042606563</v>
       </c>
       <c r="D186">
-        <v>11.56350119930874</v>
+        <v>11.07896064832436</v>
       </c>
       <c r="E186">
-        <v>9.184543856350473</v>
+        <v>8.756425518307518</v>
       </c>
       <c r="F186">
-        <v>12.31276058585401</v>
+        <v>11.06167307561549</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7.464356537532791</v>
+        <v>14.24971392063681</v>
       </c>
       <c r="C187">
-        <v>8.520033732298501</v>
+        <v>10.50525009412291</v>
       </c>
       <c r="D187">
-        <v>11.57941464264732</v>
+        <v>11.14713099748974</v>
       </c>
       <c r="E187">
-        <v>9.209615330859018</v>
+        <v>8.791890972838511</v>
       </c>
       <c r="F187">
-        <v>12.333904084898</v>
+        <v>11.1288391823432</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7.467620696653041</v>
+        <v>14.31695885145688</v>
       </c>
       <c r="C188">
-        <v>8.527668717166424</v>
+        <v>10.56960648205343</v>
       </c>
       <c r="D188">
-        <v>11.59483856373239</v>
+        <v>11.21526180617644</v>
       </c>
       <c r="E188">
-        <v>9.234416727900527</v>
+        <v>8.827124542759629</v>
       </c>
       <c r="F188">
-        <v>12.35451288278087</v>
+        <v>11.19593120893256</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7.470818931697508</v>
+        <v>14.38396480259518</v>
       </c>
       <c r="C189">
-        <v>8.535084351097652</v>
+        <v>10.63388968916067</v>
       </c>
       <c r="D189">
-        <v>11.60977886709499</v>
+        <v>11.28335339589946</v>
       </c>
       <c r="E189">
-        <v>9.258950157818104</v>
+        <v>8.862128681223032</v>
       </c>
       <c r="F189">
-        <v>12.37459395582353</v>
+        <v>11.26295025739091</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7.473954011770777</v>
+        <v>14.45073558004352</v>
       </c>
       <c r="C190">
-        <v>8.542284645280144</v>
+        <v>10.69809981666613</v>
       </c>
       <c r="D190">
-        <v>11.62424137654753</v>
+        <v>11.35140608842998</v>
       </c>
       <c r="E190">
-        <v>9.283217733932105</v>
+        <v>8.89690581623632</v>
       </c>
       <c r="F190">
-        <v>12.3941541852702</v>
+        <v>11.32989742592132</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7.47702860182902</v>
+        <v>14.5172749590164</v>
       </c>
       <c r="C191">
-        <v>8.549273526150623</v>
+        <v>10.76223696733063</v>
       </c>
       <c r="D191">
-        <v>11.63823184055243</v>
+        <v>11.41942020556863</v>
       </c>
       <c r="E191">
-        <v>9.307221553386766</v>
+        <v>8.931458351049136</v>
       </c>
       <c r="F191">
-        <v>12.41320035557075</v>
+        <v>11.3967738087975</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7.480045266793064</v>
+        <v>14.58358668419289</v>
       </c>
       <c r="C192">
-        <v>8.556054835342126</v>
+        <v>10.82630124538688</v>
       </c>
       <c r="D192">
-        <v>11.6517559298216</v>
+        <v>11.48739606935662</v>
       </c>
       <c r="E192">
-        <v>9.330963706714229</v>
+        <v>8.965788664238756</v>
       </c>
       <c r="F192">
-        <v>12.43173915824232</v>
+        <v>11.46358049637233</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7.483006475501813</v>
+        <v>14.64967447000359</v>
       </c>
       <c r="C193">
-        <v>8.562632331731146</v>
+        <v>10.89029275671586</v>
       </c>
       <c r="D193">
-        <v>11.66481923475505</v>
+        <v>11.55533400179352</v>
       </c>
       <c r="E193">
-        <v>9.354446278645126</v>
+        <v>8.999899110011556</v>
       </c>
       <c r="F193">
-        <v>12.4497771903004</v>
+        <v>11.53031857511484</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7.48591460447138</v>
+        <v>14.71554200085476</v>
       </c>
       <c r="C194">
-        <v>8.569009694464675</v>
+        <v>10.95421160883843</v>
       </c>
       <c r="D194">
-        <v>11.67742727181212</v>
+        <v>11.6232343248947</v>
       </c>
       <c r="E194">
-        <v>9.377671346772264</v>
+        <v>9.033792018354001</v>
       </c>
       <c r="F194">
-        <v>12.46732095602216</v>
+        <v>11.59698912751037</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7.488771941629041</v>
+        <v>14.78119293148861</v>
       </c>
       <c r="C195">
-        <v>8.575190522851045</v>
+        <v>11.0180579103412</v>
       </c>
       <c r="D195">
-        <v>11.68958547958497</v>
+        <v>11.69109736072476</v>
       </c>
       <c r="E195">
-        <v>9.400640975102965</v>
+        <v>9.067469695132308</v>
       </c>
       <c r="F195">
-        <v>12.4843768685683</v>
+        <v>11.66359323217968</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7.491580689848216</v>
+        <v>14.84663088683246</v>
       </c>
       <c r="C196">
-        <v>8.581178338558997</v>
+        <v>11.08183177123184</v>
       </c>
       <c r="D196">
-        <v>11.70129921877009</v>
+        <v>11.75892343116495</v>
       </c>
       <c r="E196">
-        <v>9.423357219015429</v>
+        <v>9.10093442249706</v>
       </c>
       <c r="F196">
-        <v>12.50095124911198</v>
+        <v>11.73013196374511</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7.494342970224797</v>
+        <v>14.91185946293197</v>
       </c>
       <c r="C197">
-        <v>8.586976588246166</v>
+        <v>11.14553330316349</v>
       </c>
       <c r="D197">
-        <v>11.71257377699552</v>
+        <v>11.82671285805422</v>
       </c>
       <c r="E197">
-        <v>9.445822127242417</v>
+        <v>9.134188459220518</v>
       </c>
       <c r="F197">
-        <v>12.51705032946141</v>
+        <v>11.79660639302564</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7.497060825448982</v>
+        <v>14.97688222677901</v>
       </c>
       <c r="C198">
-        <v>8.592588643271281</v>
+        <v>11.20916261861402</v>
       </c>
       <c r="D198">
-        <v>11.72341436465328</v>
+        <v>11.89446596308225</v>
       </c>
       <c r="E198">
-        <v>9.468037733284486</v>
+        <v>9.167234040322306</v>
       </c>
       <c r="F198">
-        <v>12.53268025198859</v>
+        <v>11.86301758678622</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7.499736222822624</v>
+        <v>15.04170271671449</v>
       </c>
       <c r="C199">
-        <v>8.598017802120493</v>
+        <v>11.27271983133848</v>
       </c>
       <c r="D199">
-        <v>11.73382611672533</v>
+        <v>11.96218306769667</v>
       </c>
       <c r="E199">
-        <v>9.490006060332842</v>
+        <v>9.200073377740862</v>
       </c>
       <c r="F199">
-        <v>12.54784707061443</v>
+        <v>11.92936660785486</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7.502371057198694</v>
+        <v>15.10632444306334</v>
       </c>
       <c r="C200">
-        <v>8.603267292979044</v>
+        <v>11.33620505636013</v>
       </c>
       <c r="D200">
-        <v>11.74381409578885</v>
+        <v>12.02986449323797</v>
       </c>
       <c r="E200">
-        <v>9.511729121684798</v>
+        <v>9.232708661049889</v>
       </c>
       <c r="F200">
-        <v>12.56255675255977</v>
+        <v>11.99565451533494</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7.504967153940813</v>
+        <v>15.17075088793003</v>
       </c>
       <c r="C201">
-        <v>8.608340273071297</v>
+        <v>11.39961840971995</v>
       </c>
       <c r="D201">
-        <v>11.75338328862066</v>
+        <v>12.09751056070625</v>
       </c>
       <c r="E201">
-        <v>9.533208918254401</v>
+        <v>9.265142056480855</v>
       </c>
       <c r="F201">
-        <v>12.57681517809292</v>
+        <v>12.06188236437503</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7.507526271745878</v>
+        <v>15.2349855056809</v>
       </c>
       <c r="C202">
-        <v>8.613239831388036</v>
+        <v>11.46296000840105</v>
       </c>
       <c r="D202">
-        <v>11.76253860885685</v>
+        <v>12.16512159086484</v>
       </c>
       <c r="E202">
-        <v>9.554447436689847</v>
+        <v>9.29737570794185</v>
       </c>
       <c r="F202">
-        <v>12.59062814249894</v>
+        <v>12.12805120604884</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7.510050105229703</v>
+        <v>15.29903172339403</v>
       </c>
       <c r="C203">
-        <v>8.617968990878502</v>
+        <v>11.52622997043252</v>
       </c>
       <c r="D203">
-        <v>11.77128489879157</v>
+        <v>12.23269790422199</v>
       </c>
       <c r="E203">
-        <v>9.575446651866162</v>
+        <v>9.329411737370334</v>
       </c>
       <c r="F203">
-        <v>12.60400135667287</v>
+        <v>12.1941620876711</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7.512540287484917</v>
+        <v>15.36289294142989</v>
       </c>
       <c r="C204">
-        <v>8.622530707641491</v>
+        <v>11.5894284148592</v>
       </c>
       <c r="D204">
-        <v>11.77962692688112</v>
+        <v>12.30023982089424</v>
       </c>
       <c r="E204">
-        <v>9.596208529049958</v>
+        <v>9.361252244536344</v>
       </c>
       <c r="F204">
-        <v>12.61694044788541</v>
+        <v>12.26021605301101</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7.514998392557139</v>
+        <v>15.42657253314736</v>
       </c>
       <c r="C205">
-        <v>8.626927873957749</v>
+        <v>11.65255546146493</v>
       </c>
       <c r="D205">
-        <v>11.78756939037912</v>
+        <v>12.36774766071323</v>
       </c>
       <c r="E205">
-        <v>9.616735015785212</v>
+        <v>9.392899307336842</v>
       </c>
       <c r="F205">
-        <v>12.62945096137119</v>
+        <v>12.3262141415501</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7.517425937822293</v>
+        <v>15.49007384548997</v>
       </c>
       <c r="C206">
-        <v>8.631163320076467</v>
+        <v>11.71561123090565</v>
       </c>
       <c r="D206">
-        <v>11.79511691675432</v>
+        <v>12.43522174312048</v>
       </c>
       <c r="E206">
-        <v>9.637028047158196</v>
+        <v>9.42435498218355</v>
       </c>
       <c r="F206">
-        <v>12.64153836063327</v>
+        <v>12.39215738905523</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7.519824386161526</v>
+        <v>15.55340019939287</v>
       </c>
       <c r="C207">
-        <v>8.635239813370683</v>
+        <v>11.77859584486954</v>
       </c>
       <c r="D207">
-        <v>11.80227406175545</v>
+        <v>12.50266238715168</v>
       </c>
       <c r="E207">
-        <v>9.657089547482094</v>
+        <v>9.455621304183071</v>
       </c>
       <c r="F207">
-        <v>12.65320802890038</v>
+        <v>12.45804682787443</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7.522195148184142</v>
+        <v>15.6165548900581</v>
       </c>
       <c r="C208">
-        <v>8.639160061581048</v>
+        <v>11.8415094255577</v>
       </c>
       <c r="D208">
-        <v>11.80904531197318</v>
+        <v>12.57006991149205</v>
       </c>
       <c r="E208">
-        <v>9.676921425284238</v>
+        <v>9.486700287263824</v>
       </c>
       <c r="F208">
-        <v>12.66446527002674</v>
+        <v>12.52388348624797</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7.524539584361064</v>
+        <v>15.67954118721717</v>
       </c>
       <c r="C209">
-        <v>8.642926714132573</v>
+        <v>11.90435209595735</v>
       </c>
       <c r="D209">
-        <v>11.81543508591236</v>
+        <v>12.63744463434418</v>
       </c>
       <c r="E209">
-        <v>9.696525574272401</v>
+        <v>9.517593924479238</v>
       </c>
       <c r="F209">
-        <v>12.67531530932535</v>
+        <v>12.58966838871499</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7.526859006970548</v>
+        <v>15.74236233561466</v>
       </c>
       <c r="C210">
-        <v>8.646542361334953</v>
+        <v>11.96712397986459</v>
       </c>
       <c r="D210">
-        <v>11.82144773269556</v>
+        <v>12.70478687349769</v>
       </c>
       <c r="E210">
-        <v>9.715903874873463</v>
+        <v>9.548304188153635</v>
       </c>
       <c r="F210">
-        <v>12.68576329479532</v>
+        <v>12.65540255619972</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7.529154682029804</v>
+        <v>15.80502155496469</v>
       </c>
       <c r="C211">
-        <v>8.650009537836647</v>
+        <v>12.02982520170039</v>
       </c>
       <c r="D211">
-        <v>11.82708753437486</v>
+        <v>12.7720969462995</v>
       </c>
       <c r="E211">
-        <v>9.735058194399567</v>
+        <v>9.578833030219922</v>
       </c>
       <c r="F211">
-        <v>12.69581429792755</v>
+        <v>12.72108700598285</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7.531427831145924</v>
+        <v>15.86752204071742</v>
       </c>
       <c r="C212">
-        <v>8.65333072347091</v>
+        <v>12.09245588642788</v>
       </c>
       <c r="D212">
-        <v>11.83235870663325</v>
+        <v>12.83937516958617</v>
       </c>
       <c r="E212">
-        <v>9.753990383448668</v>
+        <v>9.609182382361571</v>
       </c>
       <c r="F212">
-        <v>12.7054733147902</v>
+        <v>12.78672275155765</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7.533679633353768</v>
+        <v>15.92986696411768</v>
       </c>
       <c r="C213">
-        <v>8.656508342517116</v>
+        <v>12.15501615966783</v>
       </c>
       <c r="D213">
-        <v>11.83726539831079</v>
+        <v>12.90662185975761</v>
       </c>
       <c r="E213">
-        <v>9.772702278394865</v>
+        <v>9.639354156172733</v>
       </c>
       <c r="F213">
-        <v>12.71474526700189</v>
+        <v>12.85231080283803</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7.53591122672208</v>
+        <v>15.99205947265513</v>
       </c>
       <c r="C214">
-        <v>8.659544767342609</v>
+        <v>12.21750614770257</v>
       </c>
       <c r="D214">
-        <v>11.84181169321548</v>
+        <v>12.97383733268086</v>
       </c>
       <c r="E214">
-        <v>9.79119570225145</v>
+        <v>9.669350243502645</v>
       </c>
       <c r="F214">
-        <v>12.72363500272629</v>
+        <v>12.9178521662633</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7.538123710038312</v>
+        <v>16.0541026904351</v>
       </c>
       <c r="C215">
-        <v>8.662442318785594</v>
+        <v>12.2799259771948</v>
       </c>
       <c r="D215">
-        <v>11.846001610649</v>
+        <v>13.04102190371706</v>
       </c>
       <c r="E215">
-        <v>9.809472461411378</v>
+        <v>9.699172516619988</v>
       </c>
       <c r="F215">
-        <v>12.73214729758287</v>
+        <v>12.98334784455499</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7.540318144409198</v>
+        <v>16.11599971843536</v>
       </c>
       <c r="C216">
-        <v>8.665203265456073</v>
+        <v>12.3422757753445</v>
       </c>
       <c r="D216">
-        <v>11.84983910557819</v>
+        <v>13.10817588773613</v>
       </c>
       <c r="E216">
-        <v>9.82753434730251</v>
+        <v>9.728822828379778</v>
       </c>
       <c r="F216">
-        <v>12.74028685574349</v>
+        <v>13.04879883693383</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7.542495554743225</v>
+        <v>16.17775363480767</v>
       </c>
       <c r="C217">
-        <v>8.667829827607671</v>
+        <v>12.4045556699646</v>
       </c>
       <c r="D217">
-        <v>11.85332806998956</v>
+        <v>13.17529959903943</v>
       </c>
       <c r="E217">
-        <v>9.845383136998796</v>
+        <v>9.758303012468486</v>
       </c>
       <c r="F217">
-        <v>12.74805831079081</v>
+        <v>13.11420613911801</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7.544656931191504</v>
+        <v>16.23936749521049</v>
       </c>
       <c r="C218">
-        <v>8.670324177038287</v>
+        <v>12.46676578916078</v>
       </c>
       <c r="D218">
-        <v>11.85647233339258</v>
+        <v>13.24239335141209</v>
       </c>
       <c r="E218">
-        <v>9.863020592825286</v>
+        <v>9.787614883686123</v>
       </c>
       <c r="F218">
-        <v>12.75546622662478</v>
+        <v>13.17957074332548</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7.546803230546641</v>
+        <v>16.30084433310773</v>
       </c>
       <c r="C219">
-        <v>8.672688436449638</v>
+        <v>12.52890626149197</v>
       </c>
       <c r="D219">
-        <v>11.85927566334824</v>
+        <v>13.30945745808949</v>
       </c>
       <c r="E219">
-        <v>9.880448460248635</v>
+        <v>9.816760238075021</v>
       </c>
       <c r="F219">
-        <v>12.76251509876848</v>
+        <v>13.24489363830565</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7.548935377630876</v>
+        <v>16.36218716011737</v>
       </c>
       <c r="C220">
-        <v>8.674924683529269</v>
+        <v>12.59097721597429</v>
       </c>
       <c r="D220">
-        <v>11.86174176654505</v>
+        <v>13.37649223173191</v>
       </c>
       <c r="E220">
-        <v>9.89766846981664</v>
+        <v>9.84574085309249</v>
       </c>
       <c r="F220">
-        <v>12.76920935512929</v>
+        <v>13.31017580939201</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7.551054266521535</v>
+        <v>16.42339896630931</v>
       </c>
       <c r="C221">
-        <v>8.677034950368437</v>
+        <v>12.65297878197998</v>
       </c>
       <c r="D221">
-        <v>11.86387428932525</v>
+        <v>13.44349798449553</v>
       </c>
       <c r="E221">
-        <v>9.914682338478908</v>
+        <v>9.874558487982227</v>
       </c>
       <c r="F221">
-        <v>12.77555335641753</v>
+        <v>13.37541823854243</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7.553160761802618</v>
+        <v>16.48448272057002</v>
       </c>
       <c r="C222">
-        <v>8.679021222952152</v>
+        <v>12.71491108916831</v>
       </c>
       <c r="D222">
-        <v>11.86567681838373</v>
+        <v>13.51047502789845</v>
       </c>
       <c r="E222">
-        <v>9.93149176560779</v>
+        <v>9.903214883874282</v>
       </c>
       <c r="F222">
-        <v>12.78155139740906</v>
+        <v>13.44062190429828</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7.555255699771791</v>
+        <v>16.54544137088198</v>
       </c>
       <c r="C223">
-        <v>8.680885445327702</v>
+        <v>12.77677426755846</v>
       </c>
       <c r="D223">
-        <v>11.8671528816652</v>
+        <v>13.57742367288288</v>
       </c>
       <c r="E223">
-        <v>9.948098435618871</v>
+        <v>9.931711763803838</v>
       </c>
       <c r="F223">
-        <v>12.78720770888395</v>
+        <v>13.50578778187266</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7.55733988957335</v>
+        <v>16.6062778446676</v>
       </c>
       <c r="C224">
-        <v>8.682629518615977</v>
+        <v>12.83856844754098</v>
       </c>
       <c r="D224">
-        <v>11.86830594895488</v>
+        <v>13.64434422979287</v>
       </c>
       <c r="E224">
-        <v>9.964504018269691</v>
+        <v>9.960050833304509</v>
       </c>
       <c r="F224">
-        <v>12.7925264575469</v>
+        <v>13.570916843357</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7.559414114271068</v>
+        <v>16.66699504906262</v>
       </c>
       <c r="C225">
-        <v>8.684255300804853</v>
+        <v>12.90029375967635</v>
       </c>
       <c r="D225">
-        <v>11.86913943264425</v>
+        <v>13.71123700854897</v>
       </c>
       <c r="E225">
-        <v>9.980710167644675</v>
+        <v>9.988233780379382</v>
       </c>
       <c r="F225">
-        <v>12.79751174624288</v>
+        <v>13.63601005740058</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7.56147913191418</v>
+        <v>16.72759587125438</v>
       </c>
       <c r="C226">
-        <v>8.685764610583186</v>
+        <v>12.96195033480399</v>
       </c>
       <c r="D226">
-        <v>11.86965668844818</v>
+        <v>13.77810231825834</v>
       </c>
       <c r="E226">
-        <v>9.996718521656666</v>
+        <v>10.01626227562301</v>
       </c>
       <c r="F226">
-        <v>12.80216761613683</v>
+        <v>13.70106838948177</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7.563535676577117</v>
+        <v>16.78808317876292</v>
       </c>
       <c r="C227">
-        <v>8.687159226368751</v>
+        <v>13.02353830410938</v>
       </c>
       <c r="D227">
-        <v>11.86986101616696</v>
+        <v>13.84494046747559</v>
       </c>
       <c r="E227">
-        <v>10.01253070309224</v>
+        <v>10.04413797254365</v>
       </c>
       <c r="F227">
-        <v>12.80649804789257</v>
+        <v>13.76609280187013</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7.565584459290831</v>
+        <v>16.84845981976218</v>
       </c>
       <c r="C228">
-        <v>8.688440886206987</v>
+        <v>13.08505779887981</v>
       </c>
       <c r="D228">
-        <v>11.86975566038517</v>
+        <v>13.91175176413421</v>
       </c>
       <c r="E228">
-        <v>10.02814832007366</v>
+        <v>10.07186250783387</v>
       </c>
       <c r="F228">
-        <v>12.81050696178664</v>
+        <v>13.83108425366953</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7.567626168988316</v>
+        <v>16.90872862337919</v>
       </c>
       <c r="C229">
-        <v>8.689611291308504</v>
+        <v>13.14650895062384</v>
       </c>
       <c r="D229">
-        <v>11.8693438110449</v>
+        <v>13.97853651582641</v>
       </c>
       <c r="E229">
-        <v>10.04357296415263</v>
+        <v>10.09943750139316</v>
       </c>
       <c r="F229">
-        <v>12.81419821687968</v>
+        <v>13.89604370085832</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7.569661473408024</v>
+        <v>16.9688923999968</v>
       </c>
       <c r="C230">
-        <v>8.690672105103131</v>
+        <v>13.20789189107884</v>
       </c>
       <c r="D230">
-        <v>11.86862860443412</v>
+        <v>14.04529502920204</v>
       </c>
       <c r="E230">
-        <v>10.05880621168849</v>
+        <v>10.12686455647164</v>
       </c>
       <c r="F230">
-        <v>12.81757561520107</v>
+        <v>13.96097209631503</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7.57169101996894</v>
+        <v>17.02895394155808</v>
       </c>
       <c r="C231">
-        <v>8.691624953238072</v>
+        <v>13.26920675214351</v>
       </c>
       <c r="D231">
-        <v>11.86761312370926</v>
+        <v>14.11202761039118</v>
       </c>
       <c r="E231">
-        <v>10.0738496243163</v>
+        <v>10.1541452601726</v>
       </c>
       <c r="F231">
-        <v>12.82064290134075</v>
+        <v>14.02587038987441</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7.573715436559005</v>
+        <v>17.08891602185075</v>
       </c>
       <c r="C232">
-        <v>8.692471426830831</v>
+        <v>13.33045366581518</v>
       </c>
       <c r="D232">
-        <v>11.8663003994367</v>
+        <v>14.17873456489655</v>
       </c>
       <c r="E232">
-        <v>10.0887047477712</v>
+        <v>10.18128118340176</v>
       </c>
       <c r="F232">
-        <v>12.82340376298361</v>
+        <v>14.09073952831058</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7.575735332283262</v>
+        <v>17.14878139680462</v>
       </c>
       <c r="C233">
-        <v>8.693213081549995</v>
+        <v>13.39163276424983</v>
       </c>
       <c r="D233">
-        <v>11.86469341070609</v>
+        <v>14.2454161978232</v>
       </c>
       <c r="E233">
-        <v>10.1033731122825</v>
+        <v>10.20827388090396</v>
       </c>
       <c r="F233">
-        <v>12.82586182946275</v>
+        <v>14.15558045540681</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7.577751298489398</v>
+        <v>17.20855280478538</v>
       </c>
       <c r="C234">
-        <v>8.693851437707986</v>
+        <v>13.45274417977305</v>
       </c>
       <c r="D234">
-        <v>11.86279508551042</v>
+        <v>14.31207281339246</v>
       </c>
       <c r="E234">
-        <v>10.11785623306193</v>
+        <v>10.23512489186593</v>
       </c>
       <c r="F234">
-        <v>12.82802067756556</v>
+        <v>14.22039411195481</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7.579763908999283</v>
+        <v>17.26823296688297</v>
       </c>
       <c r="C235">
-        <v>8.694387983242573</v>
+        <v>13.51378804473334</v>
       </c>
       <c r="D235">
-        <v>11.86060830130611</v>
+        <v>14.37870471528655</v>
       </c>
       <c r="E235">
-        <v>10.13215561048784</v>
+        <v>10.26183573983003</v>
       </c>
       <c r="F235">
-        <v>12.82988382915161</v>
+        <v>14.28518143582486</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7.581773721637507</v>
+        <v>17.32782458719676</v>
       </c>
       <c r="C236">
-        <v>8.694824172824417</v>
+        <v>13.57476449158118</v>
       </c>
       <c r="D236">
-        <v>11.85813588616155</v>
+        <v>14.44531220656075</v>
       </c>
       <c r="E236">
-        <v>10.14627272900325</v>
+        <v>10.2884079327758</v>
       </c>
       <c r="F236">
-        <v>12.83145475247433</v>
+        <v>14.34994336197891</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7.583781277919588</v>
+        <v>17.38733035311991</v>
       </c>
       <c r="C237">
-        <v>8.69516142804555</v>
+        <v>13.63567365290732</v>
       </c>
       <c r="D237">
-        <v>11.85538061903141</v>
+        <v>14.51189558976289</v>
       </c>
       <c r="E237">
-        <v>10.16020905806936</v>
+        <v>10.31484296351682</v>
       </c>
       <c r="F237">
-        <v>12.83273686068713</v>
+        <v>14.41468082251481</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7.585787104588907</v>
+        <v>17.44675293565724</v>
       </c>
       <c r="C238">
-        <v>8.695401140131636</v>
+        <v>13.69651566129048</v>
       </c>
       <c r="D238">
-        <v>11.85234523037079</v>
+        <v>14.57845516668131</v>
       </c>
       <c r="E238">
-        <v>10.17396605282365</v>
+        <v>10.34114230986649</v>
       </c>
       <c r="F238">
-        <v>12.83373351788245</v>
+        <v>14.47939474669943</v>
       </c>
     </row>
   </sheetData>
